--- a/Definições de sistema.xlsx
+++ b/Definições de sistema.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9780" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9780"/>
   </bookViews>
   <sheets>
     <sheet name="Definições" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,6 @@
     <definedName name="modelos">Tabelas!$H$2:$K$5</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -40,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="362" uniqueCount="163">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="364" uniqueCount="165">
   <si>
     <t xml:space="preserve">Definições do sistema de frotas </t>
   </si>
@@ -529,6 +528,12 @@
   </si>
   <si>
     <t>tipo de manutenção</t>
+  </si>
+  <si>
+    <t>Usuário</t>
+  </si>
+  <si>
+    <t>login e senha começar verificando aula 64 do curso de php</t>
   </si>
 </sst>
 </file>
@@ -697,7 +702,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -728,23 +733,8 @@
     <xf numFmtId="0" fontId="2" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="14" fontId="0" fillId="10" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="8" borderId="0" xfId="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1"/>
@@ -752,15 +742,31 @@
     <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="13" borderId="0" xfId="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" xfId="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" xfId="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="justify" wrapText="1"/>
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" xfId="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" xfId="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="justify" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hiperlink" xfId="1" builtinId="8"/>
@@ -1042,23 +1048,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B7"/>
+  <dimension ref="A1:B13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
   <cols>
     <col min="1" max="1" width="28" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -1066,7 +1072,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -1074,7 +1080,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -1082,7 +1088,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A6" t="s">
         <v>120</v>
       </c>
@@ -1090,7 +1096,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A7" t="s">
         <v>122</v>
       </c>
@@ -1098,8 +1104,20 @@
         <v>123</v>
       </c>
     </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A12" t="s">
+        <v>163</v>
+      </c>
+      <c r="B12" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A13" s="49"/>
+    </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1107,27 +1125,27 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AC90"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="M6" sqref="M6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
   <cols>
-    <col min="1" max="1" width="5.33203125" customWidth="1"/>
+    <col min="1" max="1" width="5.31640625" customWidth="1"/>
     <col min="2" max="2" width="22" customWidth="1"/>
-    <col min="8" max="8" width="21.6640625" customWidth="1"/>
-    <col min="14" max="14" width="20.109375" customWidth="1"/>
-    <col min="20" max="20" width="20.6640625" customWidth="1"/>
-    <col min="26" max="26" width="26.6640625" customWidth="1"/>
+    <col min="8" max="8" width="21.6796875" customWidth="1"/>
+    <col min="14" max="14" width="20.08984375" customWidth="1"/>
+    <col min="20" max="20" width="20.6796875" customWidth="1"/>
+    <col min="26" max="26" width="26.6796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A1" s="30" t="s">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.75">
+      <c r="A1" s="42" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A2" s="30"/>
+    <row r="2" spans="1:26" x14ac:dyDescent="0.75">
+      <c r="A2" s="42"/>
       <c r="B2" s="2" t="s">
         <v>68</v>
       </c>
@@ -1169,8 +1187,8 @@
       </c>
       <c r="W2" s="26"/>
     </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A3" s="30"/>
+    <row r="3" spans="1:26" x14ac:dyDescent="0.75">
+      <c r="A3" s="42"/>
       <c r="B3" s="3" t="s">
         <v>56</v>
       </c>
@@ -1212,8 +1230,8 @@
       </c>
       <c r="W3" s="26"/>
     </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A4" s="30"/>
+    <row r="4" spans="1:26" x14ac:dyDescent="0.75">
+      <c r="A4" s="42"/>
       <c r="B4" s="3" t="s">
         <v>57</v>
       </c>
@@ -1257,8 +1275,8 @@
       </c>
       <c r="W4" s="26"/>
     </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A5" s="30"/>
+    <row r="5" spans="1:26" x14ac:dyDescent="0.75">
+      <c r="A5" s="42"/>
       <c r="H5" s="11" t="s">
         <v>40</v>
       </c>
@@ -1272,14 +1290,14 @@
         <v>79</v>
       </c>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A6" s="30"/>
-    </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A7" s="30"/>
-    </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A8" s="30"/>
+    <row r="6" spans="1:26" x14ac:dyDescent="0.75">
+      <c r="A6" s="42"/>
+    </row>
+    <row r="7" spans="1:26" x14ac:dyDescent="0.75">
+      <c r="A7" s="42"/>
+    </row>
+    <row r="8" spans="1:26" x14ac:dyDescent="0.75">
+      <c r="A8" s="42"/>
       <c r="B8" s="15" t="s">
         <v>74</v>
       </c>
@@ -1311,8 +1329,8 @@
       </c>
       <c r="Q8" s="8"/>
     </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A9" s="30"/>
+    <row r="9" spans="1:26" x14ac:dyDescent="0.75">
+      <c r="A9" s="42"/>
       <c r="B9" s="16" t="s">
         <v>56</v>
       </c>
@@ -1344,8 +1362,8 @@
       </c>
       <c r="Q9" s="9"/>
     </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A10" s="30"/>
+    <row r="10" spans="1:26" x14ac:dyDescent="0.75">
+      <c r="A10" s="42"/>
       <c r="B10" s="16" t="s">
         <v>75</v>
       </c>
@@ -1377,8 +1395,8 @@
       </c>
       <c r="Q10" s="9"/>
     </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A11" s="30"/>
+    <row r="11" spans="1:26" x14ac:dyDescent="0.75">
+      <c r="A11" s="42"/>
       <c r="B11" s="16" t="s">
         <v>57</v>
       </c>
@@ -1390,8 +1408,8 @@
       </c>
       <c r="E11" s="16"/>
     </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A12" s="30"/>
+    <row r="12" spans="1:26" x14ac:dyDescent="0.75">
+      <c r="A12" s="42"/>
       <c r="B12" s="16" t="s">
         <v>81</v>
       </c>
@@ -1405,8 +1423,8 @@
         <v>82</v>
       </c>
     </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A13" s="30"/>
+    <row r="13" spans="1:26" x14ac:dyDescent="0.75">
+      <c r="A13" s="42"/>
       <c r="B13" s="16" t="s">
         <v>83</v>
       </c>
@@ -1420,14 +1438,14 @@
         <v>84</v>
       </c>
     </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A14" s="30"/>
-    </row>
-    <row r="15" spans="1:26" s="29" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="31"/>
-    </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A16" s="33" t="s">
+    <row r="14" spans="1:26" x14ac:dyDescent="0.75">
+      <c r="A14" s="42"/>
+    </row>
+    <row r="15" spans="1:26" s="29" customFormat="1" x14ac:dyDescent="0.75">
+      <c r="A15" s="43"/>
+    </row>
+    <row r="16" spans="1:26" x14ac:dyDescent="0.75">
+      <c r="A16" s="44" t="s">
         <v>104</v>
       </c>
       <c r="B16" s="16" t="s">
@@ -1446,8 +1464,8 @@
         <v>130</v>
       </c>
     </row>
-    <row r="17" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A17" s="34"/>
+    <row r="17" spans="1:29" x14ac:dyDescent="0.75">
+      <c r="A17" s="45"/>
       <c r="B17" s="4" t="s">
         <v>38</v>
       </c>
@@ -1468,39 +1486,39 @@
         <v>30</v>
       </c>
       <c r="K17" s="23"/>
-      <c r="N17" s="42" t="s">
+      <c r="N17" s="37" t="s">
         <v>102</v>
       </c>
-      <c r="O17" s="42" t="s">
+      <c r="O17" s="37" t="s">
         <v>27</v>
       </c>
-      <c r="P17" s="42" t="s">
+      <c r="P17" s="37" t="s">
         <v>30</v>
       </c>
-      <c r="Q17" s="42"/>
-      <c r="T17" s="40" t="s">
+      <c r="Q17" s="37"/>
+      <c r="T17" s="35" t="s">
         <v>117</v>
       </c>
-      <c r="U17" s="40" t="s">
+      <c r="U17" s="35" t="s">
         <v>27</v>
       </c>
-      <c r="V17" s="40" t="s">
+      <c r="V17" s="35" t="s">
         <v>30</v>
       </c>
-      <c r="W17" s="40"/>
-      <c r="Z17" s="46" t="s">
+      <c r="W17" s="35"/>
+      <c r="Z17" s="39" t="s">
         <v>115</v>
       </c>
-      <c r="AA17" s="46" t="s">
+      <c r="AA17" s="39" t="s">
         <v>27</v>
       </c>
-      <c r="AB17" s="46" t="s">
+      <c r="AB17" s="39" t="s">
         <v>30</v>
       </c>
-      <c r="AC17" s="46"/>
-    </row>
-    <row r="18" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A18" s="34"/>
+      <c r="AC17" s="39"/>
+    </row>
+    <row r="18" spans="1:29" x14ac:dyDescent="0.75">
+      <c r="A18" s="45"/>
       <c r="B18" s="5" t="s">
         <v>5</v>
       </c>
@@ -1521,39 +1539,39 @@
         <v>31</v>
       </c>
       <c r="K18" s="24"/>
-      <c r="N18" s="32" t="s">
+      <c r="N18" s="30" t="s">
         <v>56</v>
       </c>
-      <c r="O18" s="32" t="s">
-        <v>29</v>
-      </c>
-      <c r="P18" s="32" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q18" s="32"/>
-      <c r="T18" s="41" t="s">
+      <c r="O18" s="30" t="s">
+        <v>29</v>
+      </c>
+      <c r="P18" s="30" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q18" s="30"/>
+      <c r="T18" s="36" t="s">
         <v>56</v>
       </c>
-      <c r="U18" s="41" t="s">
-        <v>29</v>
-      </c>
-      <c r="V18" s="41" t="s">
-        <v>31</v>
-      </c>
-      <c r="W18" s="41"/>
-      <c r="Z18" s="39" t="s">
+      <c r="U18" s="36" t="s">
+        <v>29</v>
+      </c>
+      <c r="V18" s="36" t="s">
+        <v>31</v>
+      </c>
+      <c r="W18" s="36"/>
+      <c r="Z18" s="34" t="s">
         <v>56</v>
       </c>
-      <c r="AA18" s="39" t="s">
-        <v>29</v>
-      </c>
-      <c r="AB18" s="39" t="s">
-        <v>31</v>
-      </c>
-      <c r="AC18" s="39"/>
-    </row>
-    <row r="19" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A19" s="34"/>
+      <c r="AA18" s="34" t="s">
+        <v>29</v>
+      </c>
+      <c r="AB18" s="34" t="s">
+        <v>31</v>
+      </c>
+      <c r="AC18" s="34"/>
+    </row>
+    <row r="19" spans="1:29" x14ac:dyDescent="0.75">
+      <c r="A19" s="45"/>
       <c r="B19" s="5" t="s">
         <v>40</v>
       </c>
@@ -1563,10 +1581,10 @@
       <c r="D19" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="E19" s="37" t="s">
+      <c r="E19" s="32" t="s">
         <v>101</v>
       </c>
-      <c r="G19" s="45" t="s">
+      <c r="G19" s="47" t="s">
         <v>106</v>
       </c>
       <c r="H19" s="24" t="s">
@@ -1581,46 +1599,46 @@
       <c r="K19" s="24" t="s">
         <v>97</v>
       </c>
-      <c r="M19" s="44" t="s">
+      <c r="M19" s="48" t="s">
         <v>111</v>
       </c>
-      <c r="N19" s="32" t="s">
+      <c r="N19" s="30" t="s">
         <v>108</v>
       </c>
-      <c r="O19" s="32" t="s">
-        <v>29</v>
-      </c>
-      <c r="P19" s="32" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q19" s="43" t="s">
+      <c r="O19" s="30" t="s">
+        <v>29</v>
+      </c>
+      <c r="P19" s="30" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q19" s="38" t="s">
         <v>110</v>
       </c>
-      <c r="T19" s="41" t="s">
+      <c r="T19" s="36" t="s">
         <v>124</v>
       </c>
-      <c r="U19" s="41" t="s">
+      <c r="U19" s="36" t="s">
         <v>28</v>
       </c>
-      <c r="V19" s="41" t="s">
-        <v>31</v>
-      </c>
-      <c r="W19" s="41"/>
-      <c r="Z19" s="39" t="s">
+      <c r="V19" s="36" t="s">
+        <v>31</v>
+      </c>
+      <c r="W19" s="36"/>
+      <c r="Z19" s="34" t="s">
         <v>40</v>
       </c>
-      <c r="AA19" s="39" t="s">
-        <v>29</v>
-      </c>
-      <c r="AB19" s="39" t="s">
-        <v>31</v>
-      </c>
-      <c r="AC19" s="47" t="s">
+      <c r="AA19" s="34" t="s">
+        <v>29</v>
+      </c>
+      <c r="AB19" s="34" t="s">
+        <v>31</v>
+      </c>
+      <c r="AC19" s="40" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="20" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A20" s="34"/>
+    <row r="20" spans="1:29" x14ac:dyDescent="0.75">
+      <c r="A20" s="45"/>
       <c r="B20" s="5" t="s">
         <v>41</v>
       </c>
@@ -1630,10 +1648,10 @@
       <c r="D20" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="E20" s="37" t="s">
+      <c r="E20" s="32" t="s">
         <v>105</v>
       </c>
-      <c r="G20" s="45"/>
+      <c r="G20" s="47"/>
       <c r="H20" s="24" t="s">
         <v>90</v>
       </c>
@@ -1646,47 +1664,47 @@
       <c r="K20" s="24" t="s">
         <v>98</v>
       </c>
-      <c r="M20" s="44"/>
-      <c r="N20" s="32" t="s">
+      <c r="M20" s="48"/>
+      <c r="N20" s="30" t="s">
         <v>109</v>
       </c>
-      <c r="O20" s="32" t="s">
-        <v>29</v>
-      </c>
-      <c r="P20" s="32" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q20" s="32"/>
-      <c r="S20" s="40" t="s">
+      <c r="O20" s="30" t="s">
+        <v>29</v>
+      </c>
+      <c r="P20" s="30" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q20" s="30"/>
+      <c r="S20" s="35" t="s">
         <v>125</v>
       </c>
-      <c r="T20" s="41" t="s">
+      <c r="T20" s="36" t="s">
         <v>118</v>
       </c>
-      <c r="U20" s="41" t="s">
-        <v>29</v>
-      </c>
-      <c r="V20" s="41" t="s">
-        <v>31</v>
-      </c>
-      <c r="W20" s="48" t="s">
+      <c r="U20" s="36" t="s">
+        <v>29</v>
+      </c>
+      <c r="V20" s="36" t="s">
+        <v>31</v>
+      </c>
+      <c r="W20" s="41" t="s">
         <v>119</v>
       </c>
-      <c r="Z20" s="39" t="s">
+      <c r="Z20" s="34" t="s">
         <v>116</v>
       </c>
-      <c r="AA20" s="39" t="s">
-        <v>29</v>
-      </c>
-      <c r="AB20" s="39" t="s">
-        <v>31</v>
-      </c>
-      <c r="AC20" s="47" t="s">
+      <c r="AA20" s="34" t="s">
+        <v>29</v>
+      </c>
+      <c r="AB20" s="34" t="s">
+        <v>31</v>
+      </c>
+      <c r="AC20" s="40" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="21" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A21" s="34"/>
+    <row r="21" spans="1:29" x14ac:dyDescent="0.75">
+      <c r="A21" s="45"/>
       <c r="B21" s="5" t="s">
         <v>39</v>
       </c>
@@ -1697,7 +1715,7 @@
         <v>31</v>
       </c>
       <c r="E21" s="6"/>
-      <c r="G21" s="45"/>
+      <c r="G21" s="47"/>
       <c r="H21" s="24" t="s">
         <v>91</v>
       </c>
@@ -1710,23 +1728,23 @@
       <c r="K21" s="24" t="s">
         <v>99</v>
       </c>
-      <c r="T21" s="41"/>
-      <c r="U21" s="41"/>
-      <c r="V21" s="41"/>
-      <c r="W21" s="41"/>
-      <c r="Z21" s="39" t="s">
+      <c r="T21" s="36"/>
+      <c r="U21" s="36"/>
+      <c r="V21" s="36"/>
+      <c r="W21" s="36"/>
+      <c r="Z21" s="34" t="s">
         <v>43</v>
       </c>
-      <c r="AA21" s="39" t="s">
-        <v>29</v>
-      </c>
-      <c r="AB21" s="39" t="s">
-        <v>31</v>
-      </c>
-      <c r="AC21" s="39"/>
-    </row>
-    <row r="22" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A22" s="34"/>
+      <c r="AA21" s="34" t="s">
+        <v>29</v>
+      </c>
+      <c r="AB21" s="34" t="s">
+        <v>31</v>
+      </c>
+      <c r="AC21" s="34"/>
+    </row>
+    <row r="22" spans="1:29" x14ac:dyDescent="0.75">
+      <c r="A22" s="45"/>
       <c r="B22" s="5" t="s">
         <v>43</v>
       </c>
@@ -1737,7 +1755,7 @@
         <v>31</v>
       </c>
       <c r="E22" s="5"/>
-      <c r="G22" s="45"/>
+      <c r="G22" s="47"/>
       <c r="H22" s="24" t="s">
         <v>92</v>
       </c>
@@ -1750,19 +1768,19 @@
       <c r="K22" s="28" t="s">
         <v>100</v>
       </c>
-      <c r="Z22" s="39" t="s">
+      <c r="Z22" s="34" t="s">
         <v>37</v>
       </c>
-      <c r="AA22" s="39" t="s">
+      <c r="AA22" s="34" t="s">
         <v>34</v>
       </c>
-      <c r="AB22" s="39" t="s">
-        <v>31</v>
-      </c>
-      <c r="AC22" s="39"/>
-    </row>
-    <row r="23" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A23" s="34"/>
+      <c r="AB22" s="34" t="s">
+        <v>31</v>
+      </c>
+      <c r="AC22" s="34"/>
+    </row>
+    <row r="23" spans="1:29" x14ac:dyDescent="0.75">
+      <c r="A23" s="45"/>
       <c r="B23" s="5" t="s">
         <v>70</v>
       </c>
@@ -1785,21 +1803,21 @@
       <c r="K23" s="27" t="s">
         <v>93</v>
       </c>
-      <c r="Z23" s="39" t="s">
+      <c r="Z23" s="34" t="s">
         <v>76</v>
       </c>
-      <c r="AA23" s="39" t="s">
-        <v>29</v>
-      </c>
-      <c r="AB23" s="39" t="s">
+      <c r="AA23" s="34" t="s">
+        <v>29</v>
+      </c>
+      <c r="AB23" s="34" t="s">
         <v>32</v>
       </c>
-      <c r="AC23" s="47" t="s">
+      <c r="AC23" s="40" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="24" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A24" s="34"/>
+    <row r="24" spans="1:29" x14ac:dyDescent="0.75">
+      <c r="A24" s="45"/>
       <c r="B24" s="5" t="s">
         <v>42</v>
       </c>
@@ -1825,8 +1843,8 @@
         <v>93</v>
       </c>
     </row>
-    <row r="25" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A25" s="34"/>
+    <row r="25" spans="1:29" x14ac:dyDescent="0.75">
+      <c r="A25" s="45"/>
       <c r="B25" s="5" t="s">
         <v>69</v>
       </c>
@@ -1836,12 +1854,12 @@
       <c r="D25" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="E25" s="37" t="s">
+      <c r="E25" s="32" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="26" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A26" s="34"/>
+    <row r="26" spans="1:29" x14ac:dyDescent="0.75">
+      <c r="A26" s="45"/>
       <c r="B26" s="5" t="s">
         <v>44</v>
       </c>
@@ -1853,8 +1871,8 @@
       </c>
       <c r="E26" s="5"/>
     </row>
-    <row r="27" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A27" s="34"/>
+    <row r="27" spans="1:29" x14ac:dyDescent="0.75">
+      <c r="A27" s="45"/>
       <c r="B27" s="7" t="s">
         <v>76</v>
       </c>
@@ -1864,12 +1882,12 @@
       <c r="D27" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="E27" s="37" t="s">
+      <c r="E27" s="32" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="28" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A28" s="34"/>
+    <row r="28" spans="1:29" x14ac:dyDescent="0.75">
+      <c r="A28" s="45"/>
       <c r="B28" s="7" t="s">
         <v>78</v>
       </c>
@@ -1877,17 +1895,17 @@
       <c r="D28" s="5"/>
       <c r="E28" s="5"/>
     </row>
-    <row r="29" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A29" s="34"/>
-    </row>
-    <row r="30" spans="1:29" s="32" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="31" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A31" s="36" t="s">
+    <row r="29" spans="1:29" x14ac:dyDescent="0.75">
+      <c r="A29" s="45"/>
+    </row>
+    <row r="30" spans="1:29" s="30" customFormat="1" x14ac:dyDescent="0.75"/>
+    <row r="31" spans="1:29" x14ac:dyDescent="0.75">
+      <c r="A31" s="46" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="32" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A32" s="36"/>
+    <row r="32" spans="1:29" x14ac:dyDescent="0.75">
+      <c r="A32" s="46"/>
       <c r="B32" s="17" t="s">
         <v>21</v>
       </c>
@@ -1899,8 +1917,8 @@
       </c>
       <c r="E32" s="17"/>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A33" s="36"/>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.75">
+      <c r="A33" s="46"/>
       <c r="B33" s="18" t="s">
         <v>5</v>
       </c>
@@ -1914,8 +1932,8 @@
         <v>6</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A34" s="36"/>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.75">
+      <c r="A34" s="46"/>
       <c r="B34" s="18" t="s">
         <v>7</v>
       </c>
@@ -1927,8 +1945,8 @@
       </c>
       <c r="E34" s="18"/>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A35" s="36"/>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.75">
+      <c r="A35" s="46"/>
       <c r="B35" s="18" t="s">
         <v>8</v>
       </c>
@@ -1938,12 +1956,12 @@
       <c r="D35" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="E35" s="38" t="s">
+      <c r="E35" s="33" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A36" s="36"/>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.75">
+      <c r="A36" s="46"/>
       <c r="B36" s="18" t="s">
         <v>9</v>
       </c>
@@ -1953,12 +1971,12 @@
       <c r="D36" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="E36" s="38" t="s">
+      <c r="E36" s="33" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A37" s="36"/>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.75">
+      <c r="A37" s="46"/>
       <c r="B37" s="18" t="s">
         <v>10</v>
       </c>
@@ -1970,8 +1988,8 @@
       </c>
       <c r="E37" s="18"/>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A38" s="36"/>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.75">
+      <c r="A38" s="46"/>
       <c r="B38" s="18" t="s">
         <v>12</v>
       </c>
@@ -1983,8 +2001,8 @@
       </c>
       <c r="E38" s="18"/>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A39" s="36"/>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.75">
+      <c r="A39" s="46"/>
       <c r="B39" s="18" t="s">
         <v>11</v>
       </c>
@@ -1994,12 +2012,12 @@
       <c r="D39" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="E39" s="38" t="s">
+      <c r="E39" s="33" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A40" s="36"/>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.75">
+      <c r="A40" s="46"/>
       <c r="B40" s="18" t="s">
         <v>45</v>
       </c>
@@ -2011,8 +2029,8 @@
       </c>
       <c r="E40" s="18"/>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A41" s="36"/>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.75">
+      <c r="A41" s="46"/>
       <c r="B41" s="19" t="s">
         <v>33</v>
       </c>
@@ -2024,8 +2042,8 @@
       </c>
       <c r="E41" s="18"/>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A42" s="36"/>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.75">
+      <c r="A42" s="46"/>
       <c r="B42" s="18" t="s">
         <v>37</v>
       </c>
@@ -2037,8 +2055,8 @@
       </c>
       <c r="E42" s="18"/>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A43" s="36"/>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.75">
+      <c r="A43" s="46"/>
       <c r="B43" s="18" t="s">
         <v>13</v>
       </c>
@@ -2048,12 +2066,12 @@
       <c r="D43" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="E43" s="38" t="s">
+      <c r="E43" s="33" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A44" s="36"/>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.75">
+      <c r="A44" s="46"/>
       <c r="B44" s="18" t="s">
         <v>14</v>
       </c>
@@ -2067,8 +2085,8 @@
         <v>52</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A45" s="36"/>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.75">
+      <c r="A45" s="46"/>
       <c r="B45" s="18" t="s">
         <v>15</v>
       </c>
@@ -2080,8 +2098,8 @@
       </c>
       <c r="E45" s="18"/>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A46" s="36"/>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.75">
+      <c r="A46" s="46"/>
       <c r="B46" s="18" t="s">
         <v>16</v>
       </c>
@@ -2093,8 +2111,8 @@
       </c>
       <c r="E46" s="18"/>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A47" s="36"/>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.75">
+      <c r="A47" s="46"/>
       <c r="B47" s="18" t="s">
         <v>36</v>
       </c>
@@ -2106,8 +2124,8 @@
       </c>
       <c r="E47" s="18"/>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A48" s="36"/>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.75">
+      <c r="A48" s="46"/>
       <c r="B48" s="18" t="s">
         <v>50</v>
       </c>
@@ -2121,8 +2139,8 @@
         <v>51</v>
       </c>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A49" s="36"/>
+    <row r="49" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="A49" s="46"/>
       <c r="B49" s="18" t="s">
         <v>17</v>
       </c>
@@ -2136,8 +2154,8 @@
         <v>53</v>
       </c>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A50" s="36"/>
+    <row r="50" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="A50" s="46"/>
       <c r="B50" s="18" t="s">
         <v>24</v>
       </c>
@@ -2151,8 +2169,8 @@
         <v>54</v>
       </c>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A51" s="36"/>
+    <row r="51" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="A51" s="46"/>
       <c r="B51" s="18" t="s">
         <v>25</v>
       </c>
@@ -2166,8 +2184,8 @@
         <v>55</v>
       </c>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A52" s="36"/>
+    <row r="52" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="A52" s="46"/>
       <c r="B52" s="18" t="s">
         <v>26</v>
       </c>
@@ -2181,8 +2199,8 @@
         <v>55</v>
       </c>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A53" s="36"/>
+    <row r="53" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="A53" s="46"/>
       <c r="B53" s="18" t="s">
         <v>18</v>
       </c>
@@ -2192,12 +2210,12 @@
       <c r="D53" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="E53" s="38" t="s">
+      <c r="E53" s="33" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A54" s="36"/>
+    <row r="54" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="A54" s="46"/>
       <c r="B54" s="18" t="s">
         <v>19</v>
       </c>
@@ -2207,12 +2225,12 @@
       <c r="D54" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="E54" s="38" t="s">
+      <c r="E54" s="33" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A55" s="36"/>
+    <row r="55" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="A55" s="46"/>
       <c r="B55" s="18" t="s">
         <v>20</v>
       </c>
@@ -2222,12 +2240,12 @@
       <c r="D55" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="E55" s="38" t="s">
+      <c r="E55" s="33" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A56" s="36"/>
+    <row r="56" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="A56" s="46"/>
       <c r="B56" s="19" t="s">
         <v>22</v>
       </c>
@@ -2237,12 +2255,12 @@
       <c r="D56" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="E56" s="38" t="s">
+      <c r="E56" s="33" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A57" s="36"/>
+    <row r="57" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="A57" s="46"/>
       <c r="B57" s="19" t="s">
         <v>47</v>
       </c>
@@ -2254,8 +2272,8 @@
       </c>
       <c r="E57" s="20"/>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A58" s="36"/>
+    <row r="58" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="A58" s="46"/>
       <c r="B58" s="19" t="s">
         <v>23</v>
       </c>
@@ -2265,17 +2283,17 @@
       <c r="D58" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="E58" s="38" t="s">
+      <c r="E58" s="33" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A59" s="36"/>
-    </row>
-    <row r="60" spans="1:11" s="35" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A60" s="36"/>
-    </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="A59" s="46"/>
+    </row>
+    <row r="60" spans="1:11" s="31" customFormat="1" x14ac:dyDescent="0.75">
+      <c r="A60" s="46"/>
+    </row>
+    <row r="62" spans="1:11" x14ac:dyDescent="0.75">
       <c r="B62" t="s">
         <v>135</v>
       </c>
@@ -2289,7 +2307,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.75">
       <c r="B63" t="s">
         <v>136</v>
       </c>
@@ -2303,7 +2321,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.75">
       <c r="B64" t="s">
         <v>137</v>
       </c>
@@ -2314,7 +2332,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="65" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="65" spans="2:11" x14ac:dyDescent="0.75">
       <c r="B65" t="s">
         <v>138</v>
       </c>
@@ -2325,7 +2343,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="66" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="66" spans="2:11" x14ac:dyDescent="0.75">
       <c r="B66" t="s">
         <v>109</v>
       </c>
@@ -2336,7 +2354,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="67" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="67" spans="2:11" x14ac:dyDescent="0.75">
       <c r="B67" t="s">
         <v>139</v>
       </c>
@@ -2344,77 +2362,77 @@
         <v>137</v>
       </c>
     </row>
-    <row r="71" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="71" spans="2:11" x14ac:dyDescent="0.75">
       <c r="B71" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="72" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="72" spans="2:11" x14ac:dyDescent="0.75">
       <c r="B72" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="73" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="73" spans="2:11" x14ac:dyDescent="0.75">
       <c r="B73" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="74" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="74" spans="2:11" x14ac:dyDescent="0.75">
       <c r="B74" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="75" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="75" spans="2:11" x14ac:dyDescent="0.75">
       <c r="B75" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="76" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="76" spans="2:11" x14ac:dyDescent="0.75">
       <c r="B76" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="77" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="77" spans="2:11" x14ac:dyDescent="0.75">
       <c r="B77" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="78" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="78" spans="2:11" x14ac:dyDescent="0.75">
       <c r="B78" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="79" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="79" spans="2:11" x14ac:dyDescent="0.75">
       <c r="B79" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="80" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="80" spans="2:11" x14ac:dyDescent="0.75">
       <c r="B80" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="81" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="81" spans="2:4" x14ac:dyDescent="0.75">
       <c r="B81" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="82" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="82" spans="2:4" x14ac:dyDescent="0.75">
       <c r="B82" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="83" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="83" spans="2:4" x14ac:dyDescent="0.75">
       <c r="B83" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="84" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="84" spans="2:4" x14ac:dyDescent="0.75">
       <c r="B84" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="87" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="87" spans="2:4" x14ac:dyDescent="0.75">
       <c r="B87" t="s">
         <v>112</v>
       </c>
@@ -2425,7 +2443,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="88" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="88" spans="2:4" x14ac:dyDescent="0.75">
       <c r="B88" t="s">
         <v>56</v>
       </c>
@@ -2436,7 +2454,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="89" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="89" spans="2:4" x14ac:dyDescent="0.75">
       <c r="B89" t="s">
         <v>113</v>
       </c>
@@ -2447,7 +2465,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="90" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="90" spans="2:4" x14ac:dyDescent="0.75">
       <c r="B90" t="s">
         <v>114</v>
       </c>

--- a/Definições de sistema.xlsx
+++ b/Definições de sistema.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9780"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9780" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Definições" sheetId="1" r:id="rId1"/>
@@ -30,6 +30,7 @@
     <definedName name="modelos">Tabelas!$H$2:$K$5</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -39,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="364" uniqueCount="165">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="367" uniqueCount="165">
   <si>
     <t xml:space="preserve">Definições do sistema de frotas </t>
   </si>
@@ -101,9 +102,6 @@
     <t>configuração de pneus</t>
   </si>
   <si>
-    <t>tipo de implemento</t>
-  </si>
-  <si>
     <t>VEÍCULO</t>
   </si>
   <si>
@@ -236,18 +234,12 @@
     <t>foreignkey do arquivo de pdrão de pneus ou sem pneus. Condicional a ter pneus; alternativamente pode haver um registro com nenhum pneu</t>
   </si>
   <si>
-    <t>foreignkey do arquivo de implementos (carroceria, bau, etc) ou sem implemento. Condicional ao equipamento utilizar algum implemento. Como nos anteriores pode haver um registro com nenhum implemento</t>
-  </si>
-  <si>
     <t>foreignkey do arquivo de implementos especiais (betoneiras, bombas de concreto, munck etc.)</t>
   </si>
   <si>
     <t>foreignkey do tipo de aplicação que esta sendo dada ao equipamento (leve, media, pesada ou mista)</t>
   </si>
   <si>
-    <t>MARCAS DE VEÍCULOS E COMPONENTES</t>
-  </si>
-  <si>
     <t>tipo de lubrificante</t>
   </si>
   <si>
@@ -296,15 +288,9 @@
     <t>se for combustível</t>
   </si>
   <si>
-    <t>CORES</t>
-  </si>
-  <si>
     <t>pode ser cadastrado item com mais de uma cor</t>
   </si>
   <si>
-    <t>IMPLEMENTOS</t>
-  </si>
-  <si>
     <t>APLICAÇÃO</t>
   </si>
   <si>
@@ -534,6 +520,21 @@
   </si>
   <si>
     <t>login e senha começar verificando aula 64 do curso de php</t>
+  </si>
+  <si>
+    <t>CORES   ok</t>
+  </si>
+  <si>
+    <t>MARCAS DE VEÍCULOS E COMPONENTES ok</t>
+  </si>
+  <si>
+    <t>COMPLEMENTOS</t>
+  </si>
+  <si>
+    <t>tipo de complemento</t>
+  </si>
+  <si>
+    <t>foreignkey do arquivo de complemento (carroceria, bau, etc) ou sem implemento. Condicional ao equipamento utilizar algum implemento. Como nos anteriores pode haver um registro com nenhum implemento</t>
   </si>
 </sst>
 </file>
@@ -745,6 +746,7 @@
     <xf numFmtId="0" fontId="1" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="15" borderId="0" xfId="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="16" borderId="0" xfId="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
@@ -766,7 +768,6 @@
     <xf numFmtId="0" fontId="1" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="justify" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hiperlink" xfId="1" builtinId="8"/>
@@ -1050,21 +1051,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="28" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -1072,48 +1073,48 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.75">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.75">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.75">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.75">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="B12" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.75">
-      <c r="A13" s="49"/>
+        <v>159</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A13" s="42"/>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
@@ -1125,1355 +1126,1365 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AC90"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M6" sqref="M6"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="M12" sqref="M12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="5.31640625" customWidth="1"/>
+    <col min="1" max="1" width="5.33203125" customWidth="1"/>
     <col min="2" max="2" width="22" customWidth="1"/>
-    <col min="8" max="8" width="21.6796875" customWidth="1"/>
-    <col min="14" max="14" width="20.08984375" customWidth="1"/>
-    <col min="20" max="20" width="20.6796875" customWidth="1"/>
-    <col min="26" max="26" width="26.6796875" customWidth="1"/>
+    <col min="8" max="8" width="21.6640625" customWidth="1"/>
+    <col min="14" max="14" width="20.109375" customWidth="1"/>
+    <col min="20" max="20" width="20.6640625" customWidth="1"/>
+    <col min="26" max="26" width="26.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" x14ac:dyDescent="0.75">
-      <c r="A1" s="42" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.75">
-      <c r="A2" s="42"/>
+    <row r="1" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A1" s="43" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="2" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A2" s="43"/>
       <c r="B2" s="2" t="s">
-        <v>68</v>
+        <v>161</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E2" s="3"/>
       <c r="H2" s="10" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="I2" s="10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J2" s="10" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="K2" s="11"/>
       <c r="N2" s="13" t="s">
-        <v>85</v>
+        <v>160</v>
       </c>
       <c r="O2" s="13" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="P2" s="13" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="Q2" s="14"/>
       <c r="T2" s="25" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="U2" s="25" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="V2" s="25" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="W2" s="26"/>
     </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.75">
-      <c r="A3" s="42"/>
+    <row r="3" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A3" s="43"/>
       <c r="B3" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E3" s="3"/>
       <c r="H3" s="12" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="I3" s="11" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="J3" s="11" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="K3" s="11"/>
       <c r="N3" s="14" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="O3" s="14" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="P3" s="14" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="Q3" s="14"/>
       <c r="T3" s="26" t="s">
+        <v>55</v>
+      </c>
+      <c r="U3" s="26" t="s">
+        <v>28</v>
+      </c>
+      <c r="V3" s="26" t="s">
+        <v>30</v>
+      </c>
+      <c r="W3" s="26"/>
+    </row>
+    <row r="4" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A4" s="43"/>
+      <c r="B4" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="U3" s="26" t="s">
-        <v>29</v>
-      </c>
-      <c r="V3" s="26" t="s">
-        <v>31</v>
-      </c>
-      <c r="W3" s="26"/>
-    </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.75">
-      <c r="A4" s="42"/>
-      <c r="B4" s="3" t="s">
-        <v>57</v>
-      </c>
       <c r="C4" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E4" s="3"/>
       <c r="H4" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="I4" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="I4" s="11" t="s">
-        <v>58</v>
-      </c>
       <c r="J4" s="11" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="K4" s="11"/>
       <c r="N4" s="14" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="O4" s="14" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="P4" s="14" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="Q4" s="14" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="T4" s="26" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="U4" s="26" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="V4" s="26" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="W4" s="26"/>
     </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.75">
-      <c r="A5" s="42"/>
+    <row r="5" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A5" s="43"/>
       <c r="H5" s="11" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I5" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="J5" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="K5" s="11" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="6" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A6" s="43"/>
+    </row>
+    <row r="7" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A7" s="43"/>
+    </row>
+    <row r="8" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A8" s="43"/>
+      <c r="B8" s="15" t="s">
+        <v>71</v>
+      </c>
+      <c r="C8" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="D8" s="15" t="s">
         <v>29</v>
-      </c>
-      <c r="J5" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="K5" s="11" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.75">
-      <c r="A6" s="42"/>
-    </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.75">
-      <c r="A7" s="42"/>
-    </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.75">
-      <c r="A8" s="42"/>
-      <c r="B8" s="15" t="s">
-        <v>74</v>
-      </c>
-      <c r="C8" s="15" t="s">
-        <v>27</v>
-      </c>
-      <c r="D8" s="15" t="s">
-        <v>30</v>
       </c>
       <c r="E8" s="15"/>
       <c r="H8" s="21" t="s">
-        <v>87</v>
+        <v>162</v>
       </c>
       <c r="I8" s="21" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J8" s="21" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="K8" s="21"/>
       <c r="N8" s="8" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="O8" s="8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="P8" s="8" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="Q8" s="8"/>
     </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.75">
-      <c r="A9" s="42"/>
+    <row r="9" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A9" s="43"/>
       <c r="B9" s="16" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C9" s="16" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D9" s="16" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E9" s="16"/>
       <c r="H9" s="22" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="I9" s="22" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="J9" s="22" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="K9" s="22"/>
       <c r="N9" s="9" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="O9" s="9" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="P9" s="9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="Q9" s="9"/>
     </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.75">
-      <c r="A10" s="42"/>
+    <row r="10" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A10" s="43"/>
       <c r="B10" s="16" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="C10" s="16" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D10" s="16" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E10" s="16"/>
       <c r="H10" s="22" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="I10" s="22" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J10" s="22" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="K10" s="22"/>
       <c r="N10" s="9" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="O10" s="9" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="P10" s="9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="Q10" s="9"/>
     </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.75">
-      <c r="A11" s="42"/>
+    <row r="11" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A11" s="43"/>
       <c r="B11" s="16" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C11" s="16" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D11" s="16" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E11" s="16"/>
-    </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.75">
-      <c r="A12" s="42"/>
+      <c r="H11" s="22" t="s">
+        <v>39</v>
+      </c>
+      <c r="I11" s="22" t="s">
+        <v>28</v>
+      </c>
+      <c r="J11" s="22" t="s">
+        <v>30</v>
+      </c>
+      <c r="K11" s="22"/>
+    </row>
+    <row r="12" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A12" s="43"/>
       <c r="B12" s="16" t="s">
+        <v>78</v>
+      </c>
+      <c r="C12" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="D12" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="E12" s="16" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="13" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A13" s="43"/>
+      <c r="B13" s="16" t="s">
+        <v>80</v>
+      </c>
+      <c r="C13" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="D13" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="E13" s="16" t="s">
         <v>81</v>
       </c>
-      <c r="C12" s="16" t="s">
-        <v>28</v>
-      </c>
-      <c r="D12" s="16" t="s">
-        <v>35</v>
-      </c>
-      <c r="E12" s="16" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.75">
-      <c r="A13" s="42"/>
-      <c r="B13" s="16" t="s">
-        <v>83</v>
-      </c>
-      <c r="C13" s="16" t="s">
+    </row>
+    <row r="14" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A14" s="43"/>
+    </row>
+    <row r="15" spans="1:26" s="29" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="44"/>
+    </row>
+    <row r="16" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A16" s="45" t="s">
+        <v>99</v>
+      </c>
+      <c r="B16" s="16" t="s">
+        <v>121</v>
+      </c>
+      <c r="H16" t="s">
+        <v>122</v>
+      </c>
+      <c r="N16" t="s">
+        <v>123</v>
+      </c>
+      <c r="T16" t="s">
+        <v>124</v>
+      </c>
+      <c r="Z16" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="17" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A17" s="46"/>
+      <c r="B17" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17" s="4" t="s">
         <v>29</v>
-      </c>
-      <c r="D13" s="16" t="s">
-        <v>35</v>
-      </c>
-      <c r="E13" s="16" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.75">
-      <c r="A14" s="42"/>
-    </row>
-    <row r="15" spans="1:26" s="29" customFormat="1" x14ac:dyDescent="0.75">
-      <c r="A15" s="43"/>
-    </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.75">
-      <c r="A16" s="44" t="s">
-        <v>104</v>
-      </c>
-      <c r="B16" s="16" t="s">
-        <v>126</v>
-      </c>
-      <c r="H16" t="s">
-        <v>127</v>
-      </c>
-      <c r="N16" t="s">
-        <v>128</v>
-      </c>
-      <c r="T16" t="s">
-        <v>129</v>
-      </c>
-      <c r="Z16" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="17" spans="1:29" x14ac:dyDescent="0.75">
-      <c r="A17" s="45"/>
-      <c r="B17" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="C17" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="D17" s="4" t="s">
-        <v>30</v>
       </c>
       <c r="E17" s="4"/>
       <c r="H17" s="23" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="I17" s="23" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J17" s="23" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="K17" s="23"/>
       <c r="N17" s="37" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="O17" s="37" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="P17" s="37" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="Q17" s="37"/>
       <c r="T17" s="35" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="U17" s="35" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="V17" s="35" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="W17" s="35"/>
       <c r="Z17" s="39" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="AA17" s="39" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AB17" s="39" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AC17" s="39"/>
     </row>
-    <row r="18" spans="1:29" x14ac:dyDescent="0.75">
-      <c r="A18" s="45"/>
+    <row r="18" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A18" s="46"/>
       <c r="B18" s="5" t="s">
         <v>5</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E18" s="5"/>
       <c r="H18" s="24" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="I18" s="24" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="J18" s="24" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="K18" s="24"/>
       <c r="N18" s="30" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="O18" s="30" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="P18" s="30" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="Q18" s="30"/>
       <c r="T18" s="36" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="U18" s="36" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="V18" s="36" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="W18" s="36"/>
       <c r="Z18" s="34" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="AA18" s="34" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AB18" s="34" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="AC18" s="34"/>
     </row>
-    <row r="19" spans="1:29" x14ac:dyDescent="0.75">
-      <c r="A19" s="45"/>
+    <row r="19" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A19" s="46"/>
       <c r="B19" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E19" s="32" t="s">
+        <v>96</v>
+      </c>
+      <c r="G19" s="48" t="s">
         <v>101</v>
       </c>
-      <c r="G19" s="47" t="s">
+      <c r="H19" s="24" t="s">
+        <v>84</v>
+      </c>
+      <c r="I19" s="24" t="s">
+        <v>28</v>
+      </c>
+      <c r="J19" s="24" t="s">
+        <v>30</v>
+      </c>
+      <c r="K19" s="24" t="s">
+        <v>92</v>
+      </c>
+      <c r="M19" s="49" t="s">
         <v>106</v>
       </c>
-      <c r="H19" s="24" t="s">
-        <v>89</v>
-      </c>
-      <c r="I19" s="24" t="s">
-        <v>29</v>
-      </c>
-      <c r="J19" s="24" t="s">
-        <v>31</v>
-      </c>
-      <c r="K19" s="24" t="s">
-        <v>97</v>
-      </c>
-      <c r="M19" s="48" t="s">
-        <v>111</v>
-      </c>
       <c r="N19" s="30" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="O19" s="30" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="P19" s="30" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="Q19" s="38" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="T19" s="36" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="U19" s="36" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="V19" s="36" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="W19" s="36"/>
       <c r="Z19" s="34" t="s">
+        <v>39</v>
+      </c>
+      <c r="AA19" s="34" t="s">
+        <v>28</v>
+      </c>
+      <c r="AB19" s="34" t="s">
+        <v>30</v>
+      </c>
+      <c r="AC19" s="40" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="20" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A20" s="46"/>
+      <c r="B20" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="AA19" s="34" t="s">
-        <v>29</v>
-      </c>
-      <c r="AB19" s="34" t="s">
-        <v>31</v>
-      </c>
-      <c r="AC19" s="40" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="20" spans="1:29" x14ac:dyDescent="0.75">
-      <c r="A20" s="45"/>
-      <c r="B20" s="5" t="s">
-        <v>41</v>
-      </c>
       <c r="C20" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E20" s="32" t="s">
-        <v>105</v>
-      </c>
-      <c r="G20" s="47"/>
+        <v>100</v>
+      </c>
+      <c r="G20" s="48"/>
       <c r="H20" s="24" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="I20" s="24" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="J20" s="24" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="K20" s="24" t="s">
-        <v>98</v>
-      </c>
-      <c r="M20" s="48"/>
+        <v>93</v>
+      </c>
+      <c r="M20" s="49"/>
       <c r="N20" s="30" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="O20" s="30" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="P20" s="30" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="Q20" s="30"/>
       <c r="S20" s="35" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="T20" s="36" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="U20" s="36" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="V20" s="36" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="W20" s="41" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="Z20" s="34" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="AA20" s="34" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AB20" s="34" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="AC20" s="40" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="21" spans="1:29" x14ac:dyDescent="0.75">
-      <c r="A21" s="45"/>
+        <v>127</v>
+      </c>
+    </row>
+    <row r="21" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A21" s="46"/>
       <c r="B21" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E21" s="6"/>
-      <c r="G21" s="47"/>
+      <c r="G21" s="48"/>
       <c r="H21" s="24" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="I21" s="24" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="J21" s="24" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="K21" s="24" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="T21" s="36"/>
       <c r="U21" s="36"/>
       <c r="V21" s="36"/>
       <c r="W21" s="36"/>
       <c r="Z21" s="34" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="AA21" s="34" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AB21" s="34" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="AC21" s="34"/>
     </row>
-    <row r="22" spans="1:29" x14ac:dyDescent="0.75">
-      <c r="A22" s="45"/>
+    <row r="22" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A22" s="46"/>
       <c r="B22" s="5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E22" s="5"/>
-      <c r="G22" s="47"/>
+      <c r="G22" s="48"/>
       <c r="H22" s="24" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="I22" s="24" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="J22" s="24" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="K22" s="28" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="Z22" s="34" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="AA22" s="34" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="AB22" s="34" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="AC22" s="34"/>
     </row>
-    <row r="23" spans="1:29" x14ac:dyDescent="0.75">
-      <c r="A23" s="45"/>
+    <row r="23" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A23" s="46"/>
       <c r="B23" s="5" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E23" s="5"/>
       <c r="H23" s="24" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="I23" s="24" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="J23" s="24" t="s">
+        <v>30</v>
+      </c>
+      <c r="K23" s="27" t="s">
+        <v>88</v>
+      </c>
+      <c r="Z23" s="34" t="s">
+        <v>73</v>
+      </c>
+      <c r="AA23" s="34" t="s">
+        <v>28</v>
+      </c>
+      <c r="AB23" s="34" t="s">
         <v>31</v>
       </c>
-      <c r="K23" s="27" t="s">
-        <v>93</v>
-      </c>
-      <c r="Z23" s="34" t="s">
-        <v>76</v>
-      </c>
-      <c r="AA23" s="34" t="s">
-        <v>29</v>
-      </c>
-      <c r="AB23" s="34" t="s">
-        <v>32</v>
-      </c>
       <c r="AC23" s="40" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="24" spans="1:29" x14ac:dyDescent="0.75">
-      <c r="A24" s="45"/>
+        <v>128</v>
+      </c>
+    </row>
+    <row r="24" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A24" s="46"/>
       <c r="B24" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D24" s="5" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="E24" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="H24" s="24" t="s">
+        <v>91</v>
+      </c>
+      <c r="I24" s="24" t="s">
+        <v>28</v>
+      </c>
+      <c r="J24" s="24" t="s">
+        <v>30</v>
+      </c>
+      <c r="K24" s="24" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="25" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A25" s="46"/>
+      <c r="B25" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="C25" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="D25" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="E25" s="32" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="26" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A26" s="46"/>
+      <c r="B26" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="C26" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="D26" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="E26" s="5"/>
+    </row>
+    <row r="27" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A27" s="46"/>
+      <c r="B27" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="H24" s="24" t="s">
-        <v>96</v>
-      </c>
-      <c r="I24" s="24" t="s">
-        <v>29</v>
-      </c>
-      <c r="J24" s="24" t="s">
-        <v>31</v>
-      </c>
-      <c r="K24" s="24" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="25" spans="1:29" x14ac:dyDescent="0.75">
-      <c r="A25" s="45"/>
-      <c r="B25" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="C25" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="D25" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="E25" s="32" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="26" spans="1:29" x14ac:dyDescent="0.75">
-      <c r="A26" s="45"/>
-      <c r="B26" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="C26" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="D26" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="E26" s="5"/>
-    </row>
-    <row r="27" spans="1:29" x14ac:dyDescent="0.75">
-      <c r="A27" s="45"/>
-      <c r="B27" s="7" t="s">
-        <v>76</v>
-      </c>
       <c r="C27" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D27" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E27" s="32" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="28" spans="1:29" x14ac:dyDescent="0.75">
-      <c r="A28" s="45"/>
+        <v>74</v>
+      </c>
+    </row>
+    <row r="28" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A28" s="46"/>
       <c r="B28" s="7" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="C28" s="5"/>
       <c r="D28" s="5"/>
       <c r="E28" s="5"/>
     </row>
-    <row r="29" spans="1:29" x14ac:dyDescent="0.75">
-      <c r="A29" s="45"/>
-    </row>
-    <row r="30" spans="1:29" s="30" customFormat="1" x14ac:dyDescent="0.75"/>
-    <row r="31" spans="1:29" x14ac:dyDescent="0.75">
-      <c r="A31" s="46" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="32" spans="1:29" x14ac:dyDescent="0.75">
-      <c r="A32" s="46"/>
+    <row r="29" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A29" s="46"/>
+    </row>
+    <row r="30" spans="1:29" s="30" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="31" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A31" s="47" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="32" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A32" s="47"/>
       <c r="B32" s="17" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C32" s="17" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D32" s="17" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E32" s="17"/>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.75">
-      <c r="A33" s="46"/>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A33" s="47"/>
       <c r="B33" s="18" t="s">
         <v>5</v>
       </c>
       <c r="C33" s="18" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D33" s="19" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E33" s="18" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.75">
-      <c r="A34" s="46"/>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A34" s="47"/>
       <c r="B34" s="18" t="s">
         <v>7</v>
       </c>
       <c r="C34" s="18" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D34" s="18" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E34" s="18"/>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.75">
-      <c r="A35" s="46"/>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A35" s="47"/>
       <c r="B35" s="18" t="s">
         <v>8</v>
       </c>
       <c r="C35" s="18" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D35" s="18" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E35" s="33" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.75">
-      <c r="A36" s="46"/>
+        <v>58</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A36" s="47"/>
       <c r="B36" s="18" t="s">
         <v>9</v>
       </c>
       <c r="C36" s="18" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D36" s="18" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E36" s="33" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.75">
-      <c r="A37" s="46"/>
+        <v>59</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A37" s="47"/>
       <c r="B37" s="18" t="s">
         <v>10</v>
       </c>
       <c r="C37" s="18" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D37" s="18" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E37" s="18"/>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.75">
-      <c r="A38" s="46"/>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A38" s="47"/>
       <c r="B38" s="18" t="s">
         <v>12</v>
       </c>
       <c r="C38" s="18" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D38" s="18" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E38" s="18"/>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.75">
-      <c r="A39" s="46"/>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A39" s="47"/>
       <c r="B39" s="18" t="s">
         <v>11</v>
       </c>
       <c r="C39" s="18" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D39" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="E39" s="33" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A40" s="47"/>
+      <c r="B40" s="18" t="s">
+        <v>44</v>
+      </c>
+      <c r="C40" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="D40" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="E39" s="33" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.75">
-      <c r="A40" s="46"/>
-      <c r="B40" s="18" t="s">
-        <v>45</v>
-      </c>
-      <c r="C40" s="18" t="s">
-        <v>28</v>
-      </c>
-      <c r="D40" s="18" t="s">
+      <c r="E40" s="18"/>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A41" s="47"/>
+      <c r="B41" s="19" t="s">
         <v>32</v>
       </c>
-      <c r="E40" s="18"/>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.75">
-      <c r="A41" s="46"/>
-      <c r="B41" s="19" t="s">
+      <c r="C41" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="C41" s="18" t="s">
-        <v>34</v>
-      </c>
       <c r="D41" s="18" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E41" s="18"/>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.75">
-      <c r="A42" s="46"/>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A42" s="47"/>
       <c r="B42" s="18" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C42" s="18" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D42" s="18" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E42" s="18"/>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.75">
-      <c r="A43" s="46"/>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A43" s="47"/>
       <c r="B43" s="18" t="s">
         <v>13</v>
       </c>
       <c r="C43" s="18" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D43" s="18" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E43" s="33" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.75">
-      <c r="A44" s="46"/>
+        <v>61</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A44" s="47"/>
       <c r="B44" s="18" t="s">
         <v>14</v>
       </c>
       <c r="C44" s="18" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D44" s="18" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E44" s="18" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.75">
-      <c r="A45" s="46"/>
+        <v>51</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A45" s="47"/>
       <c r="B45" s="18" t="s">
         <v>15</v>
       </c>
       <c r="C45" s="18" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D45" s="18" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E45" s="18"/>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.75">
-      <c r="A46" s="46"/>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A46" s="47"/>
       <c r="B46" s="18" t="s">
         <v>16</v>
       </c>
       <c r="C46" s="18" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D46" s="18" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E46" s="18"/>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.75">
-      <c r="A47" s="46"/>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A47" s="47"/>
       <c r="B47" s="18" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C47" s="18" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D47" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="E47" s="18"/>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A48" s="47"/>
+      <c r="B48" s="18" t="s">
+        <v>49</v>
+      </c>
+      <c r="C48" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="D48" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="E47" s="18"/>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.75">
-      <c r="A48" s="46"/>
-      <c r="B48" s="18" t="s">
+      <c r="E48" s="18" t="s">
         <v>50</v>
       </c>
-      <c r="C48" s="18" t="s">
-        <v>29</v>
-      </c>
-      <c r="D48" s="18" t="s">
-        <v>32</v>
-      </c>
-      <c r="E48" s="18" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.75">
-      <c r="A49" s="46"/>
+    </row>
+    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A49" s="47"/>
       <c r="B49" s="18" t="s">
         <v>17</v>
       </c>
       <c r="C49" s="18" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D49" s="18" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E49" s="18" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A50" s="47"/>
+      <c r="B50" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="C50" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="D50" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="E50" s="18" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.75">
-      <c r="A50" s="46"/>
-      <c r="B50" s="18" t="s">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A51" s="47"/>
+      <c r="B51" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="C50" s="18" t="s">
-        <v>29</v>
-      </c>
-      <c r="D50" s="18" t="s">
-        <v>35</v>
-      </c>
-      <c r="E50" s="18" t="s">
+      <c r="C51" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="D51" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="E51" s="18" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.75">
-      <c r="A51" s="46"/>
-      <c r="B51" s="18" t="s">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A52" s="47"/>
+      <c r="B52" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="C51" s="18" t="s">
-        <v>29</v>
-      </c>
-      <c r="D51" s="18" t="s">
-        <v>35</v>
-      </c>
-      <c r="E51" s="18" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.75">
-      <c r="A52" s="46"/>
-      <c r="B52" s="18" t="s">
-        <v>26</v>
-      </c>
       <c r="C52" s="18" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D52" s="18" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E52" s="19" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.75">
-      <c r="A53" s="46"/>
+        <v>54</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A53" s="47"/>
       <c r="B53" s="18" t="s">
         <v>18</v>
       </c>
       <c r="C53" s="18" t="s">
+        <v>33</v>
+      </c>
+      <c r="D53" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="D53" s="18" t="s">
-        <v>35</v>
-      </c>
       <c r="E53" s="33" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.75">
-      <c r="A54" s="46"/>
+        <v>62</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A54" s="47"/>
       <c r="B54" s="18" t="s">
         <v>19</v>
       </c>
       <c r="C54" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="D54" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="E54" s="33" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A55" s="47"/>
+      <c r="B55" s="18" t="s">
+        <v>163</v>
+      </c>
+      <c r="C55" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="D55" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="E55" s="33" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A56" s="47"/>
+      <c r="B56" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="C56" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="D56" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="E56" s="33" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A57" s="47"/>
+      <c r="B57" s="19" t="s">
+        <v>46</v>
+      </c>
+      <c r="C57" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="D57" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="E57" s="20"/>
+    </row>
+    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A58" s="47"/>
+      <c r="B58" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="C58" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="D58" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="E58" s="33" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A59" s="47"/>
+    </row>
+    <row r="60" spans="1:11" s="31" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A60" s="47"/>
+    </row>
+    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B62" t="s">
+        <v>130</v>
+      </c>
+      <c r="E62" t="s">
+        <v>135</v>
+      </c>
+      <c r="H62" t="s">
+        <v>138</v>
+      </c>
+      <c r="K62" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B63" t="s">
+        <v>131</v>
+      </c>
+      <c r="E63" t="s">
+        <v>131</v>
+      </c>
+      <c r="H63" t="s">
+        <v>139</v>
+      </c>
+      <c r="K63" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B64" t="s">
+        <v>132</v>
+      </c>
+      <c r="E64" t="s">
+        <v>85</v>
+      </c>
+      <c r="K64" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="65" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B65" t="s">
+        <v>133</v>
+      </c>
+      <c r="E65" t="s">
+        <v>136</v>
+      </c>
+      <c r="K65" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="66" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B66" t="s">
+        <v>104</v>
+      </c>
+      <c r="E66" t="s">
+        <v>137</v>
+      </c>
+      <c r="K66" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="67" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B67" t="s">
+        <v>134</v>
+      </c>
+      <c r="E67" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="71" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B71" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="72" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B72" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="73" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B73" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="74" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B74" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="75" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B75" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="76" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B76" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="77" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B77" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="78" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B78" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="79" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B79" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="80" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B80" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="81" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B81" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="82" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B82" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="83" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B83" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="84" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B84" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="87" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B87" t="s">
+        <v>107</v>
+      </c>
+      <c r="C87" t="s">
+        <v>26</v>
+      </c>
+      <c r="D87" t="s">
         <v>29</v>
       </c>
-      <c r="D54" s="18" t="s">
+    </row>
+    <row r="88" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B88" t="s">
+        <v>55</v>
+      </c>
+      <c r="C88" t="s">
+        <v>28</v>
+      </c>
+      <c r="D88" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="89" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B89" t="s">
+        <v>108</v>
+      </c>
+      <c r="C89" t="s">
+        <v>28</v>
+      </c>
+      <c r="D89" t="s">
         <v>31</v>
       </c>
-      <c r="E54" s="33" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.75">
-      <c r="A55" s="46"/>
-      <c r="B55" s="18" t="s">
-        <v>20</v>
-      </c>
-      <c r="C55" s="18" t="s">
-        <v>29</v>
-      </c>
-      <c r="D55" s="18" t="s">
-        <v>35</v>
-      </c>
-      <c r="E55" s="33" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.75">
-      <c r="A56" s="46"/>
-      <c r="B56" s="19" t="s">
-        <v>22</v>
-      </c>
-      <c r="C56" s="18" t="s">
-        <v>29</v>
-      </c>
-      <c r="D56" s="18" t="s">
-        <v>32</v>
-      </c>
-      <c r="E56" s="33" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.75">
-      <c r="A57" s="46"/>
-      <c r="B57" s="19" t="s">
-        <v>47</v>
-      </c>
-      <c r="C57" s="18" t="s">
-        <v>29</v>
-      </c>
-      <c r="D57" s="18" t="s">
-        <v>32</v>
-      </c>
-      <c r="E57" s="20"/>
-    </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.75">
-      <c r="A58" s="46"/>
-      <c r="B58" s="19" t="s">
-        <v>23</v>
-      </c>
-      <c r="C58" s="18" t="s">
-        <v>29</v>
-      </c>
-      <c r="D58" s="18" t="s">
-        <v>32</v>
-      </c>
-      <c r="E58" s="33" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.75">
-      <c r="A59" s="46"/>
-    </row>
-    <row r="60" spans="1:11" s="31" customFormat="1" x14ac:dyDescent="0.75">
-      <c r="A60" s="46"/>
-    </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.75">
-      <c r="B62" t="s">
-        <v>135</v>
-      </c>
-      <c r="E62" t="s">
-        <v>140</v>
-      </c>
-      <c r="H62" t="s">
-        <v>143</v>
-      </c>
-      <c r="K62" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.75">
-      <c r="B63" t="s">
-        <v>136</v>
-      </c>
-      <c r="E63" t="s">
-        <v>136</v>
-      </c>
-      <c r="H63" t="s">
-        <v>144</v>
-      </c>
-      <c r="K63" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.75">
-      <c r="B64" t="s">
-        <v>137</v>
-      </c>
-      <c r="E64" t="s">
-        <v>90</v>
-      </c>
-      <c r="K64" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="65" spans="2:11" x14ac:dyDescent="0.75">
-      <c r="B65" t="s">
-        <v>138</v>
-      </c>
-      <c r="E65" t="s">
-        <v>141</v>
-      </c>
-      <c r="K65" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="66" spans="2:11" x14ac:dyDescent="0.75">
-      <c r="B66" t="s">
+    </row>
+    <row r="90" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B90" t="s">
         <v>109</v>
       </c>
-      <c r="E66" t="s">
-        <v>142</v>
-      </c>
-      <c r="K66" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="67" spans="2:11" x14ac:dyDescent="0.75">
-      <c r="B67" t="s">
-        <v>139</v>
-      </c>
-      <c r="E67" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="71" spans="2:11" x14ac:dyDescent="0.75">
-      <c r="B71" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="72" spans="2:11" x14ac:dyDescent="0.75">
-      <c r="B72" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="73" spans="2:11" x14ac:dyDescent="0.75">
-      <c r="B73" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="74" spans="2:11" x14ac:dyDescent="0.75">
-      <c r="B74" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="75" spans="2:11" x14ac:dyDescent="0.75">
-      <c r="B75" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="76" spans="2:11" x14ac:dyDescent="0.75">
-      <c r="B76" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="77" spans="2:11" x14ac:dyDescent="0.75">
-      <c r="B77" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="78" spans="2:11" x14ac:dyDescent="0.75">
-      <c r="B78" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="79" spans="2:11" x14ac:dyDescent="0.75">
-      <c r="B79" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="80" spans="2:11" x14ac:dyDescent="0.75">
-      <c r="B80" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="81" spans="2:4" x14ac:dyDescent="0.75">
-      <c r="B81" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="82" spans="2:4" x14ac:dyDescent="0.75">
-      <c r="B82" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="83" spans="2:4" x14ac:dyDescent="0.75">
-      <c r="B83" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="84" spans="2:4" x14ac:dyDescent="0.75">
-      <c r="B84" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="87" spans="2:4" x14ac:dyDescent="0.75">
-      <c r="B87" t="s">
-        <v>112</v>
-      </c>
-      <c r="C87" t="s">
-        <v>27</v>
-      </c>
-      <c r="D87" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="88" spans="2:4" x14ac:dyDescent="0.75">
-      <c r="B88" t="s">
-        <v>56</v>
-      </c>
-      <c r="C88" t="s">
-        <v>29</v>
-      </c>
-      <c r="D88" t="s">
+      <c r="C90" t="s">
+        <v>28</v>
+      </c>
+      <c r="D90" t="s">
         <v>31</v>
-      </c>
-    </row>
-    <row r="89" spans="2:4" x14ac:dyDescent="0.75">
-      <c r="B89" t="s">
-        <v>113</v>
-      </c>
-      <c r="C89" t="s">
-        <v>29</v>
-      </c>
-      <c r="D89" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="90" spans="2:4" x14ac:dyDescent="0.75">
-      <c r="B90" t="s">
-        <v>114</v>
-      </c>
-      <c r="C90" t="s">
-        <v>29</v>
-      </c>
-      <c r="D90" t="s">
-        <v>32</v>
       </c>
     </row>
   </sheetData>
@@ -2505,5 +2516,6 @@
     <hyperlink ref="E56" location="implementosX" display="foreignkey do arquivo de implementos especiais (betoneiras, bombas de concreto, munck etc.)"/>
   </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Definições de sistema.xlsx
+++ b/Definições de sistema.xlsx
@@ -30,7 +30,6 @@
     <definedName name="modelos">Tabelas!$H$2:$K$5</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -40,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="367" uniqueCount="165">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="371" uniqueCount="167">
   <si>
     <t xml:space="preserve">Definições do sistema de frotas </t>
   </si>
@@ -273,9 +272,6 @@
     <t>foreignkey da marca de veiculos e componentes</t>
   </si>
   <si>
-    <t>MODELOS DE VEICULOS E COMPONENTES</t>
-  </si>
-  <si>
     <t>viscosidade SAE</t>
   </si>
   <si>
@@ -291,9 +287,6 @@
     <t>pode ser cadastrado item com mais de uma cor</t>
   </si>
   <si>
-    <t>APLICAÇÃO</t>
-  </si>
-  <si>
     <t>eixo</t>
   </si>
   <si>
@@ -535,6 +528,18 @@
   </si>
   <si>
     <t>foreignkey do arquivo de complemento (carroceria, bau, etc) ou sem implemento. Condicional ao equipamento utilizar algum implemento. Como nos anteriores pode haver um registro com nenhum implemento</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sim </t>
+  </si>
+  <si>
+    <t>foreignkey da tabela de modelos de veiculos e complementos</t>
+  </si>
+  <si>
+    <t>MODELOS DE VEICULOS E COMPONENTES   ok</t>
+  </si>
+  <si>
+    <t>APLICAÇÃO    ok</t>
   </si>
 </sst>
 </file>
@@ -703,7 +708,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -768,6 +773,7 @@
     <xf numFmtId="0" fontId="1" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="justify" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" xfId="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hiperlink" xfId="1" builtinId="8"/>
@@ -1055,17 +1061,17 @@
       <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
   <cols>
     <col min="1" max="1" width="28" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -1073,7 +1079,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -1081,7 +1087,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -1089,31 +1095,31 @@
         <v>48</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A6" t="s">
+        <v>113</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A7" t="s">
         <v>115</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B7" s="1" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>117</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A12" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="B12" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A13" s="42"/>
     </row>
   </sheetData>
@@ -1126,29 +1132,29 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AC90"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="M12" sqref="M12"/>
+    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="T2" sqref="T2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
   <cols>
-    <col min="1" max="1" width="5.33203125" customWidth="1"/>
+    <col min="1" max="1" width="5.31640625" customWidth="1"/>
     <col min="2" max="2" width="22" customWidth="1"/>
-    <col min="8" max="8" width="21.6640625" customWidth="1"/>
-    <col min="14" max="14" width="20.109375" customWidth="1"/>
-    <col min="20" max="20" width="20.6640625" customWidth="1"/>
-    <col min="26" max="26" width="26.6640625" customWidth="1"/>
+    <col min="8" max="8" width="21.6796875" customWidth="1"/>
+    <col min="14" max="14" width="20.08984375" customWidth="1"/>
+    <col min="20" max="20" width="20.6796875" customWidth="1"/>
+    <col min="26" max="26" width="26.6796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.75">
       <c r="A1" s="43" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.3">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="2" spans="1:26" x14ac:dyDescent="0.75">
       <c r="A2" s="43"/>
       <c r="B2" s="2" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>26</v>
@@ -1158,7 +1164,7 @@
       </c>
       <c r="E2" s="3"/>
       <c r="H2" s="10" t="s">
-        <v>77</v>
+        <v>165</v>
       </c>
       <c r="I2" s="10" t="s">
         <v>26</v>
@@ -1168,7 +1174,7 @@
       </c>
       <c r="K2" s="11"/>
       <c r="N2" s="13" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="O2" s="13" t="s">
         <v>26</v>
@@ -1178,7 +1184,7 @@
       </c>
       <c r="Q2" s="14"/>
       <c r="T2" s="25" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="U2" s="25" t="s">
         <v>26</v>
@@ -1188,7 +1194,7 @@
       </c>
       <c r="W2" s="26"/>
     </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:26" x14ac:dyDescent="0.75">
       <c r="A3" s="43"/>
       <c r="B3" s="3" t="s">
         <v>55</v>
@@ -1231,7 +1237,7 @@
       </c>
       <c r="W3" s="26"/>
     </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:26" x14ac:dyDescent="0.75">
       <c r="A4" s="43"/>
       <c r="B4" s="3" t="s">
         <v>56</v>
@@ -1263,7 +1269,7 @@
         <v>30</v>
       </c>
       <c r="Q4" s="14" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="T4" s="26" t="s">
         <v>56</v>
@@ -1276,7 +1282,7 @@
       </c>
       <c r="W4" s="26"/>
     </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.75">
       <c r="A5" s="43"/>
       <c r="H5" s="11" t="s">
         <v>39</v>
@@ -1291,13 +1297,13 @@
         <v>76</v>
       </c>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.75">
       <c r="A6" s="43"/>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.75">
       <c r="A7" s="43"/>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.75">
       <c r="A8" s="43"/>
       <c r="B8" s="15" t="s">
         <v>71</v>
@@ -1310,7 +1316,7 @@
       </c>
       <c r="E8" s="15"/>
       <c r="H8" s="21" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="I8" s="21" t="s">
         <v>26</v>
@@ -1320,7 +1326,7 @@
       </c>
       <c r="K8" s="21"/>
       <c r="N8" s="8" t="s">
-        <v>83</v>
+        <v>166</v>
       </c>
       <c r="O8" s="8" t="s">
         <v>26</v>
@@ -1330,7 +1336,7 @@
       </c>
       <c r="Q8" s="8"/>
     </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.75">
       <c r="A9" s="43"/>
       <c r="B9" s="16" t="s">
         <v>55</v>
@@ -1363,7 +1369,7 @@
       </c>
       <c r="Q9" s="9"/>
     </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:26" x14ac:dyDescent="0.75">
       <c r="A10" s="43"/>
       <c r="B10" s="16" t="s">
         <v>72</v>
@@ -1396,7 +1402,7 @@
       </c>
       <c r="Q10" s="9"/>
     </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:26" x14ac:dyDescent="0.75">
       <c r="A11" s="43"/>
       <c r="B11" s="16" t="s">
         <v>56</v>
@@ -1419,10 +1425,10 @@
       </c>
       <c r="K11" s="22"/>
     </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:26" x14ac:dyDescent="0.75">
       <c r="A12" s="43"/>
       <c r="B12" s="16" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C12" s="16" t="s">
         <v>27</v>
@@ -1431,13 +1437,25 @@
         <v>34</v>
       </c>
       <c r="E12" s="16" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.3">
+        <v>78</v>
+      </c>
+      <c r="H12" s="22" t="s">
+        <v>109</v>
+      </c>
+      <c r="I12" s="22" t="s">
+        <v>28</v>
+      </c>
+      <c r="J12" s="22" t="s">
+        <v>163</v>
+      </c>
+      <c r="K12" s="50" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="13" spans="1:26" x14ac:dyDescent="0.75">
       <c r="A13" s="43"/>
       <c r="B13" s="16" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C13" s="16" t="s">
         <v>28</v>
@@ -1446,36 +1464,36 @@
         <v>34</v>
       </c>
       <c r="E13" s="16" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.3">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26" x14ac:dyDescent="0.75">
       <c r="A14" s="43"/>
     </row>
-    <row r="15" spans="1:26" s="29" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:26" s="29" customFormat="1" x14ac:dyDescent="0.75">
       <c r="A15" s="44"/>
     </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:26" x14ac:dyDescent="0.75">
       <c r="A16" s="45" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B16" s="16" t="s">
+        <v>119</v>
+      </c>
+      <c r="H16" t="s">
+        <v>120</v>
+      </c>
+      <c r="N16" t="s">
         <v>121</v>
       </c>
-      <c r="H16" t="s">
+      <c r="T16" t="s">
         <v>122</v>
       </c>
-      <c r="N16" t="s">
+      <c r="Z16" t="s">
         <v>123</v>
       </c>
-      <c r="T16" t="s">
-        <v>124</v>
-      </c>
-      <c r="Z16" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="17" spans="1:29" x14ac:dyDescent="0.3">
+    </row>
+    <row r="17" spans="1:29" x14ac:dyDescent="0.75">
       <c r="A17" s="46"/>
       <c r="B17" s="4" t="s">
         <v>37</v>
@@ -1488,7 +1506,7 @@
       </c>
       <c r="E17" s="4"/>
       <c r="H17" s="23" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="I17" s="23" t="s">
         <v>26</v>
@@ -1498,7 +1516,7 @@
       </c>
       <c r="K17" s="23"/>
       <c r="N17" s="37" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="O17" s="37" t="s">
         <v>26</v>
@@ -1508,7 +1526,7 @@
       </c>
       <c r="Q17" s="37"/>
       <c r="T17" s="35" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="U17" s="35" t="s">
         <v>26</v>
@@ -1518,7 +1536,7 @@
       </c>
       <c r="W17" s="35"/>
       <c r="Z17" s="39" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="AA17" s="39" t="s">
         <v>26</v>
@@ -1528,7 +1546,7 @@
       </c>
       <c r="AC17" s="39"/>
     </row>
-    <row r="18" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:29" x14ac:dyDescent="0.75">
       <c r="A18" s="46"/>
       <c r="B18" s="5" t="s">
         <v>5</v>
@@ -1581,7 +1599,7 @@
       </c>
       <c r="AC18" s="34"/>
     </row>
-    <row r="19" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:29" x14ac:dyDescent="0.75">
       <c r="A19" s="46"/>
       <c r="B19" s="5" t="s">
         <v>39</v>
@@ -1593,40 +1611,40 @@
         <v>30</v>
       </c>
       <c r="E19" s="32" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="G19" s="48" t="s">
+        <v>99</v>
+      </c>
+      <c r="H19" s="24" t="s">
+        <v>82</v>
+      </c>
+      <c r="I19" s="24" t="s">
+        <v>28</v>
+      </c>
+      <c r="J19" s="24" t="s">
+        <v>30</v>
+      </c>
+      <c r="K19" s="24" t="s">
+        <v>90</v>
+      </c>
+      <c r="M19" s="49" t="s">
+        <v>104</v>
+      </c>
+      <c r="N19" s="30" t="s">
         <v>101</v>
       </c>
-      <c r="H19" s="24" t="s">
-        <v>84</v>
-      </c>
-      <c r="I19" s="24" t="s">
-        <v>28</v>
-      </c>
-      <c r="J19" s="24" t="s">
-        <v>30</v>
-      </c>
-      <c r="K19" s="24" t="s">
-        <v>92</v>
-      </c>
-      <c r="M19" s="49" t="s">
-        <v>106</v>
-      </c>
-      <c r="N19" s="30" t="s">
+      <c r="O19" s="30" t="s">
+        <v>28</v>
+      </c>
+      <c r="P19" s="30" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q19" s="38" t="s">
         <v>103</v>
       </c>
-      <c r="O19" s="30" t="s">
-        <v>28</v>
-      </c>
-      <c r="P19" s="30" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q19" s="38" t="s">
-        <v>105</v>
-      </c>
       <c r="T19" s="36" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="U19" s="36" t="s">
         <v>27</v>
@@ -1645,10 +1663,10 @@
         <v>30</v>
       </c>
       <c r="AC19" s="40" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="20" spans="1:29" x14ac:dyDescent="0.3">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="20" spans="1:29" x14ac:dyDescent="0.75">
       <c r="A20" s="46"/>
       <c r="B20" s="5" t="s">
         <v>40</v>
@@ -1660,11 +1678,11 @@
         <v>30</v>
       </c>
       <c r="E20" s="32" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="G20" s="48"/>
       <c r="H20" s="24" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I20" s="24" t="s">
         <v>28</v>
@@ -1673,11 +1691,11 @@
         <v>30</v>
       </c>
       <c r="K20" s="24" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="M20" s="49"/>
       <c r="N20" s="30" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="O20" s="30" t="s">
         <v>28</v>
@@ -1687,10 +1705,10 @@
       </c>
       <c r="Q20" s="30"/>
       <c r="S20" s="35" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="T20" s="36" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="U20" s="36" t="s">
         <v>28</v>
@@ -1699,10 +1717,10 @@
         <v>30</v>
       </c>
       <c r="W20" s="41" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="Z20" s="34" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="AA20" s="34" t="s">
         <v>28</v>
@@ -1711,10 +1729,10 @@
         <v>30</v>
       </c>
       <c r="AC20" s="40" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="21" spans="1:29" x14ac:dyDescent="0.3">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="21" spans="1:29" x14ac:dyDescent="0.75">
       <c r="A21" s="46"/>
       <c r="B21" s="5" t="s">
         <v>38</v>
@@ -1728,7 +1746,7 @@
       <c r="E21" s="6"/>
       <c r="G21" s="48"/>
       <c r="H21" s="24" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="I21" s="24" t="s">
         <v>28</v>
@@ -1737,7 +1755,7 @@
         <v>30</v>
       </c>
       <c r="K21" s="24" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="T21" s="36"/>
       <c r="U21" s="36"/>
@@ -1754,7 +1772,7 @@
       </c>
       <c r="AC21" s="34"/>
     </row>
-    <row r="22" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:29" x14ac:dyDescent="0.75">
       <c r="A22" s="46"/>
       <c r="B22" s="5" t="s">
         <v>42</v>
@@ -1768,7 +1786,7 @@
       <c r="E22" s="5"/>
       <c r="G22" s="48"/>
       <c r="H22" s="24" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="I22" s="24" t="s">
         <v>28</v>
@@ -1777,7 +1795,7 @@
         <v>30</v>
       </c>
       <c r="K22" s="28" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="Z22" s="34" t="s">
         <v>36</v>
@@ -1790,7 +1808,7 @@
       </c>
       <c r="AC22" s="34"/>
     </row>
-    <row r="23" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:29" x14ac:dyDescent="0.75">
       <c r="A23" s="46"/>
       <c r="B23" s="5" t="s">
         <v>67</v>
@@ -1803,7 +1821,7 @@
       </c>
       <c r="E23" s="5"/>
       <c r="H23" s="24" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="I23" s="24" t="s">
         <v>28</v>
@@ -1812,7 +1830,7 @@
         <v>30</v>
       </c>
       <c r="K23" s="27" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="Z23" s="34" t="s">
         <v>73</v>
@@ -1824,10 +1842,10 @@
         <v>31</v>
       </c>
       <c r="AC23" s="40" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="24" spans="1:29" x14ac:dyDescent="0.3">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="24" spans="1:29" x14ac:dyDescent="0.75">
       <c r="A24" s="46"/>
       <c r="B24" s="5" t="s">
         <v>41</v>
@@ -1842,7 +1860,7 @@
         <v>70</v>
       </c>
       <c r="H24" s="24" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="I24" s="24" t="s">
         <v>28</v>
@@ -1851,10 +1869,10 @@
         <v>30</v>
       </c>
       <c r="K24" s="24" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="25" spans="1:29" x14ac:dyDescent="0.3">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="25" spans="1:29" x14ac:dyDescent="0.75">
       <c r="A25" s="46"/>
       <c r="B25" s="5" t="s">
         <v>66</v>
@@ -1869,7 +1887,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="26" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:29" x14ac:dyDescent="0.75">
       <c r="A26" s="46"/>
       <c r="B26" s="5" t="s">
         <v>43</v>
@@ -1882,7 +1900,7 @@
       </c>
       <c r="E26" s="5"/>
     </row>
-    <row r="27" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:29" x14ac:dyDescent="0.75">
       <c r="A27" s="46"/>
       <c r="B27" s="7" t="s">
         <v>73</v>
@@ -1897,7 +1915,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="28" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:29" x14ac:dyDescent="0.75">
       <c r="A28" s="46"/>
       <c r="B28" s="7" t="s">
         <v>75</v>
@@ -1906,16 +1924,16 @@
       <c r="D28" s="5"/>
       <c r="E28" s="5"/>
     </row>
-    <row r="29" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:29" x14ac:dyDescent="0.75">
       <c r="A29" s="46"/>
     </row>
-    <row r="30" spans="1:29" s="30" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="31" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:29" s="30" customFormat="1" x14ac:dyDescent="0.75"/>
+    <row r="31" spans="1:29" x14ac:dyDescent="0.75">
       <c r="A31" s="47" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="32" spans="1:29" x14ac:dyDescent="0.3">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="32" spans="1:29" x14ac:dyDescent="0.75">
       <c r="A32" s="47"/>
       <c r="B32" s="17" t="s">
         <v>20</v>
@@ -1928,7 +1946,7 @@
       </c>
       <c r="E32" s="17"/>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A33" s="47"/>
       <c r="B33" s="18" t="s">
         <v>5</v>
@@ -1943,7 +1961,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A34" s="47"/>
       <c r="B34" s="18" t="s">
         <v>7</v>
@@ -1956,7 +1974,7 @@
       </c>
       <c r="E34" s="18"/>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A35" s="47"/>
       <c r="B35" s="18" t="s">
         <v>8</v>
@@ -1971,7 +1989,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A36" s="47"/>
       <c r="B36" s="18" t="s">
         <v>9</v>
@@ -1986,7 +2004,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A37" s="47"/>
       <c r="B37" s="18" t="s">
         <v>10</v>
@@ -1999,7 +2017,7 @@
       </c>
       <c r="E37" s="18"/>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A38" s="47"/>
       <c r="B38" s="18" t="s">
         <v>12</v>
@@ -2012,7 +2030,7 @@
       </c>
       <c r="E38" s="18"/>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A39" s="47"/>
       <c r="B39" s="18" t="s">
         <v>11</v>
@@ -2027,7 +2045,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A40" s="47"/>
       <c r="B40" s="18" t="s">
         <v>44</v>
@@ -2040,7 +2058,7 @@
       </c>
       <c r="E40" s="18"/>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A41" s="47"/>
       <c r="B41" s="19" t="s">
         <v>32</v>
@@ -2053,7 +2071,7 @@
       </c>
       <c r="E41" s="18"/>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A42" s="47"/>
       <c r="B42" s="18" t="s">
         <v>36</v>
@@ -2066,7 +2084,7 @@
       </c>
       <c r="E42" s="18"/>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A43" s="47"/>
       <c r="B43" s="18" t="s">
         <v>13</v>
@@ -2081,7 +2099,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A44" s="47"/>
       <c r="B44" s="18" t="s">
         <v>14</v>
@@ -2096,7 +2114,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A45" s="47"/>
       <c r="B45" s="18" t="s">
         <v>15</v>
@@ -2109,7 +2127,7 @@
       </c>
       <c r="E45" s="18"/>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A46" s="47"/>
       <c r="B46" s="18" t="s">
         <v>16</v>
@@ -2122,7 +2140,7 @@
       </c>
       <c r="E46" s="18"/>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A47" s="47"/>
       <c r="B47" s="18" t="s">
         <v>35</v>
@@ -2135,7 +2153,7 @@
       </c>
       <c r="E47" s="18"/>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A48" s="47"/>
       <c r="B48" s="18" t="s">
         <v>49</v>
@@ -2150,7 +2168,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A49" s="47"/>
       <c r="B49" s="18" t="s">
         <v>17</v>
@@ -2165,7 +2183,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A50" s="47"/>
       <c r="B50" s="18" t="s">
         <v>23</v>
@@ -2180,7 +2198,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A51" s="47"/>
       <c r="B51" s="18" t="s">
         <v>24</v>
@@ -2195,7 +2213,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A52" s="47"/>
       <c r="B52" s="18" t="s">
         <v>25</v>
@@ -2210,7 +2228,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A53" s="47"/>
       <c r="B53" s="18" t="s">
         <v>18</v>
@@ -2225,7 +2243,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A54" s="47"/>
       <c r="B54" s="18" t="s">
         <v>19</v>
@@ -2240,10 +2258,10 @@
         <v>63</v>
       </c>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A55" s="47"/>
       <c r="B55" s="18" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C55" s="18" t="s">
         <v>28</v>
@@ -2252,10 +2270,10 @@
         <v>34</v>
       </c>
       <c r="E55" s="33" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A56" s="47"/>
       <c r="B56" s="19" t="s">
         <v>21</v>
@@ -2270,7 +2288,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A57" s="47"/>
       <c r="B57" s="19" t="s">
         <v>46</v>
@@ -2283,7 +2301,7 @@
       </c>
       <c r="E57" s="20"/>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A58" s="47"/>
       <c r="B58" s="19" t="s">
         <v>22</v>
@@ -2298,154 +2316,154 @@
         <v>65</v>
       </c>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A59" s="47"/>
     </row>
-    <row r="60" spans="1:11" s="31" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:11" s="31" customFormat="1" x14ac:dyDescent="0.75">
       <c r="A60" s="47"/>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.75">
       <c r="B62" t="s">
+        <v>128</v>
+      </c>
+      <c r="E62" t="s">
+        <v>133</v>
+      </c>
+      <c r="H62" t="s">
+        <v>136</v>
+      </c>
+      <c r="K62" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="B63" t="s">
+        <v>129</v>
+      </c>
+      <c r="E63" t="s">
+        <v>129</v>
+      </c>
+      <c r="H63" t="s">
+        <v>137</v>
+      </c>
+      <c r="K63" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="B64" t="s">
         <v>130</v>
       </c>
-      <c r="E62" t="s">
+      <c r="E64" t="s">
+        <v>83</v>
+      </c>
+      <c r="K64" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="65" spans="2:11" x14ac:dyDescent="0.75">
+      <c r="B65" t="s">
+        <v>131</v>
+      </c>
+      <c r="E65" t="s">
+        <v>134</v>
+      </c>
+      <c r="K65" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="66" spans="2:11" x14ac:dyDescent="0.75">
+      <c r="B66" t="s">
+        <v>102</v>
+      </c>
+      <c r="E66" t="s">
         <v>135</v>
       </c>
-      <c r="H62" t="s">
+      <c r="K66" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="67" spans="2:11" x14ac:dyDescent="0.75">
+      <c r="B67" t="s">
+        <v>132</v>
+      </c>
+      <c r="E67" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="71" spans="2:11" x14ac:dyDescent="0.75">
+      <c r="B71" t="s">
         <v>138</v>
       </c>
-      <c r="K62" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="B63" t="s">
-        <v>131</v>
-      </c>
-      <c r="E63" t="s">
-        <v>131</v>
-      </c>
-      <c r="H63" t="s">
+    </row>
+    <row r="72" spans="2:11" x14ac:dyDescent="0.75">
+      <c r="B72" t="s">
         <v>139</v>
       </c>
-      <c r="K63" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="B64" t="s">
-        <v>132</v>
-      </c>
-      <c r="E64" t="s">
-        <v>85</v>
-      </c>
-      <c r="K64" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="65" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B65" t="s">
-        <v>133</v>
-      </c>
-      <c r="E65" t="s">
-        <v>136</v>
-      </c>
-      <c r="K65" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="66" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B66" t="s">
-        <v>104</v>
-      </c>
-      <c r="E66" t="s">
-        <v>137</v>
-      </c>
-      <c r="K66" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="67" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B67" t="s">
-        <v>134</v>
-      </c>
-      <c r="E67" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="71" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B71" t="s">
+    </row>
+    <row r="73" spans="2:11" x14ac:dyDescent="0.75">
+      <c r="B73" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="74" spans="2:11" x14ac:dyDescent="0.75">
+      <c r="B74" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="75" spans="2:11" x14ac:dyDescent="0.75">
+      <c r="B75" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="72" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B72" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="73" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B73" t="s">
+    <row r="76" spans="2:11" x14ac:dyDescent="0.75">
+      <c r="B76" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="77" spans="2:11" x14ac:dyDescent="0.75">
+      <c r="B77" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="78" spans="2:11" x14ac:dyDescent="0.75">
+      <c r="B78" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="79" spans="2:11" x14ac:dyDescent="0.75">
+      <c r="B79" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="74" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B74" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="75" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B75" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="76" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B76" t="s">
+    <row r="80" spans="2:11" x14ac:dyDescent="0.75">
+      <c r="B80" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="77" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B77" t="s">
+    <row r="81" spans="2:4" x14ac:dyDescent="0.75">
+      <c r="B81" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="78" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B78" t="s">
+    <row r="82" spans="2:4" x14ac:dyDescent="0.75">
+      <c r="B82" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="79" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B79" t="s">
+    <row r="83" spans="2:4" x14ac:dyDescent="0.75">
+      <c r="B83" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="80" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B80" t="s">
+    <row r="84" spans="2:4" x14ac:dyDescent="0.75">
+      <c r="B84" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="81" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B81" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="82" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B82" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="83" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B83" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="84" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B84" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="87" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="87" spans="2:4" x14ac:dyDescent="0.75">
       <c r="B87" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C87" t="s">
         <v>26</v>
@@ -2454,7 +2472,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="88" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="88" spans="2:4" x14ac:dyDescent="0.75">
       <c r="B88" t="s">
         <v>55</v>
       </c>
@@ -2465,9 +2483,9 @@
         <v>30</v>
       </c>
     </row>
-    <row r="89" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="89" spans="2:4" x14ac:dyDescent="0.75">
       <c r="B89" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C89" t="s">
         <v>28</v>
@@ -2476,9 +2494,9 @@
         <v>31</v>
       </c>
     </row>
-    <row r="90" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="90" spans="2:4" x14ac:dyDescent="0.75">
       <c r="B90" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C90" t="s">
         <v>28</v>
@@ -2514,6 +2532,7 @@
     <hyperlink ref="AC23" location="configitem" display="foreingkey de configuração de itens"/>
     <hyperlink ref="W20" location="componentes" display="foreignkey de componentes"/>
     <hyperlink ref="E56" location="implementosX" display="foreignkey do arquivo de implementos especiais (betoneiras, bombas de concreto, munck etc.)"/>
+    <hyperlink ref="K12" location="modelos" display="foreignkey da tabela de modelos de veiculos e complementos"/>
   </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Definições de sistema.xlsx
+++ b/Definições de sistema.xlsx
@@ -9,25 +9,26 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9780" activeTab="1"/>
+    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9780" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Definições" sheetId="1" r:id="rId1"/>
     <sheet name="Tabelas" sheetId="3" r:id="rId2"/>
+    <sheet name="Auxiliares" sheetId="4" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="aplicacao">Tabelas!$N$8:$Q$11</definedName>
-    <definedName name="combuslubrif">Tabelas!$B$8:$E$13</definedName>
-    <definedName name="componentes">Tabelas!$B$17:$E$28</definedName>
-    <definedName name="configcompon">Tabelas!$S$17:$W$21</definedName>
-    <definedName name="configitem">Tabelas!$M$17:$Q$20</definedName>
-    <definedName name="configposition">Tabelas!$H$17:$K$24</definedName>
-    <definedName name="cores">Tabelas!$N$2:$Q$4</definedName>
-    <definedName name="implementos">Tabelas!$H$8:$K$11</definedName>
-    <definedName name="implementosX">Tabelas!$Z$17:$AC$23</definedName>
-    <definedName name="itensrelev">Tabelas!$T$2:$W$4</definedName>
-    <definedName name="marcas">Tabelas!$B$2:$E$4</definedName>
-    <definedName name="modelos">Tabelas!$H$2:$K$5</definedName>
+    <definedName name="aplicacao">Tabelas!$N$10:$Q$13</definedName>
+    <definedName name="combuslubrif">Tabelas!$B$10:$E$15</definedName>
+    <definedName name="componentes">Tabelas!$B$19:$E$30</definedName>
+    <definedName name="configcompon">Tabelas!$S$19:$W$23</definedName>
+    <definedName name="configitem">Tabelas!$M$19:$Q$22</definedName>
+    <definedName name="configposition">Tabelas!$H$19:$K$26</definedName>
+    <definedName name="cores">Tabelas!$N$4:$Q$6</definedName>
+    <definedName name="implementos">Tabelas!$H$10:$K$13</definedName>
+    <definedName name="implementosX">Tabelas!$Z$19:$AC$25</definedName>
+    <definedName name="itensrelev">Tabelas!$T$4:$W$6</definedName>
+    <definedName name="marcas">Tabelas!$B$4:$E$6</definedName>
+    <definedName name="modelos">Tabelas!$H$4:$K$7</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -39,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="371" uniqueCount="167">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="398" uniqueCount="192">
   <si>
     <t xml:space="preserve">Definições do sistema de frotas </t>
   </si>
@@ -515,9 +516,6 @@
     <t>login e senha começar verificando aula 64 do curso de php</t>
   </si>
   <si>
-    <t>CORES   ok</t>
-  </si>
-  <si>
     <t>MARCAS DE VEÍCULOS E COMPONENTES ok</t>
   </si>
   <si>
@@ -540,13 +538,91 @@
   </si>
   <si>
     <t>APLICAÇÃO    ok</t>
+  </si>
+  <si>
+    <t>MODULO DE FROTAS</t>
+  </si>
+  <si>
+    <t>Populando combo box baseado em outra combo box</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=KpubPcUe08g</t>
+  </si>
+  <si>
+    <t>hide and show elemens</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=ahJqP7e_SE8</t>
+  </si>
+  <si>
+    <t>Endereço para incluir o jquery</t>
+  </si>
+  <si>
+    <t>https://developers.google.com</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=GJOBeOHxbKM</t>
+  </si>
+  <si>
+    <t>O jQuery</t>
+  </si>
+  <si>
+    <t>&lt;script src="https://ajax.googleapis.com/ajax/libs/d3js/5.15.0/d3.min.js"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>Criando janela modal para as listagens</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=ji6QKhWsYGA</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=yWIJVaNyTKQ</t>
+  </si>
+  <si>
+    <t>celke</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=VuvZhmmz1Xc</t>
+  </si>
+  <si>
+    <t>janela modal para termo de uso</t>
+  </si>
+  <si>
+    <t>acrescentar: placa, espaço para codigo do motorista</t>
+  </si>
+  <si>
+    <t>Cores ok</t>
+  </si>
+  <si>
+    <t>formulários com abas</t>
+  </si>
+  <si>
+    <t>https://celke.com.br/artigo/como-validar-formulario-de-contato-com-php</t>
+  </si>
+  <si>
+    <t>https://celke.com.br/artigo/como-criar-formulario-com-abas-com-php</t>
+  </si>
+  <si>
+    <t>https://celke.com.br/artigo/como-criar-formulario-com-abas-e-bloquear-abas</t>
+  </si>
+  <si>
+    <t>https://celke.com.br/artigo/como-criar-formulario-com-abas-e-carregar-proximo-formulario</t>
+  </si>
+  <si>
+    <t>https://celke.com.br/artigo/como-criar-formulario-com-abas-e-apresentar-mensagem-de-sucesso</t>
+  </si>
+  <si>
+    <t>Usando $.post em jquery</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=6-AnPcIhTIg</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -578,8 +654,22 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="9.9"/>
+      <color rgb="FF37474F"/>
+      <name val="Roboto Mono"/>
+      <family val="3"/>
+    </font>
   </fonts>
-  <fills count="17">
+  <fills count="18">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -676,6 +766,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="3">
     <border>
@@ -708,7 +804,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="58">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -752,6 +848,19 @@
     <xf numFmtId="0" fontId="3" fillId="15" borderId="0" xfId="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="16" borderId="0" xfId="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" xfId="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="justify" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
@@ -770,10 +879,6 @@
     <xf numFmtId="0" fontId="1" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="justify" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" xfId="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hiperlink" xfId="1" builtinId="8"/>
@@ -1061,17 +1166,17 @@
       <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="28" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="1" spans="1:2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="3" spans="1:2">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -1079,7 +1184,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="4" spans="1:2">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -1087,7 +1192,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="5" spans="1:2">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -1095,7 +1200,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="6" spans="1:2">
       <c r="A6" t="s">
         <v>113</v>
       </c>
@@ -1103,7 +1208,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="7" spans="1:2">
       <c r="A7" t="s">
         <v>115</v>
       </c>
@@ -1111,7 +1216,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="12" spans="1:2">
       <c r="A12" t="s">
         <v>156</v>
       </c>
@@ -1119,7 +1224,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="13" spans="1:2">
       <c r="A13" s="42"/>
     </row>
   </sheetData>
@@ -1130,1033 +1235,1036 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AC90"/>
+  <dimension ref="A1:AE92"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="T2" sqref="T2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="N7" sqref="N7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="5.31640625" customWidth="1"/>
+    <col min="1" max="1" width="5.33203125" customWidth="1"/>
     <col min="2" max="2" width="22" customWidth="1"/>
-    <col min="8" max="8" width="21.6796875" customWidth="1"/>
-    <col min="14" max="14" width="20.08984375" customWidth="1"/>
-    <col min="20" max="20" width="20.6796875" customWidth="1"/>
-    <col min="26" max="26" width="26.6796875" customWidth="1"/>
+    <col min="8" max="8" width="21.6640625" customWidth="1"/>
+    <col min="14" max="14" width="20.109375" customWidth="1"/>
+    <col min="20" max="20" width="20.6640625" customWidth="1"/>
+    <col min="26" max="26" width="26.6640625" customWidth="1"/>
+    <col min="31" max="31" width="3.77734375" style="44" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" x14ac:dyDescent="0.75">
-      <c r="A1" s="43" t="s">
+    <row r="1" spans="1:23">
+      <c r="D1" s="51" t="s">
+        <v>166</v>
+      </c>
+      <c r="E1" s="51"/>
+      <c r="F1" s="51"/>
+      <c r="G1" s="51"/>
+      <c r="H1" s="51"/>
+      <c r="I1" s="51"/>
+      <c r="J1" s="51"/>
+      <c r="K1" s="51"/>
+    </row>
+    <row r="2" spans="1:23">
+      <c r="D2" s="51"/>
+      <c r="E2" s="51"/>
+      <c r="F2" s="51"/>
+      <c r="G2" s="51"/>
+      <c r="H2" s="51"/>
+      <c r="I2" s="51"/>
+      <c r="J2" s="51"/>
+      <c r="K2" s="51"/>
+    </row>
+    <row r="3" spans="1:23">
+      <c r="A3" s="52" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.75">
-      <c r="A2" s="43"/>
-      <c r="B2" s="2" t="s">
+    <row r="4" spans="1:23">
+      <c r="A4" s="52"/>
+      <c r="B4" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E4" s="3"/>
+      <c r="H4" s="10" t="s">
+        <v>164</v>
+      </c>
+      <c r="I4" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="J4" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="K4" s="11"/>
+      <c r="N4" s="48" t="s">
+        <v>183</v>
+      </c>
+      <c r="O4" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="P4" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q4" s="14"/>
+      <c r="T4" s="25" t="s">
+        <v>100</v>
+      </c>
+      <c r="U4" s="25" t="s">
+        <v>26</v>
+      </c>
+      <c r="V4" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="W4" s="26"/>
+    </row>
+    <row r="5" spans="1:23">
+      <c r="A5" s="52"/>
+      <c r="B5" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E5" s="3"/>
+      <c r="H5" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="I5" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="J5" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="K5" s="11"/>
+      <c r="N5" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="O5" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="P5" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q5" s="14"/>
+      <c r="T5" s="26" t="s">
+        <v>55</v>
+      </c>
+      <c r="U5" s="26" t="s">
+        <v>28</v>
+      </c>
+      <c r="V5" s="26" t="s">
+        <v>30</v>
+      </c>
+      <c r="W5" s="26"/>
+    </row>
+    <row r="6" spans="1:23">
+      <c r="A6" s="52"/>
+      <c r="B6" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E6" s="3"/>
+      <c r="H6" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="I6" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="J6" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="K6" s="11"/>
+      <c r="N6" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="O6" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="P6" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q6" s="14" t="s">
+        <v>81</v>
+      </c>
+      <c r="T6" s="26" t="s">
+        <v>56</v>
+      </c>
+      <c r="U6" s="26" t="s">
+        <v>27</v>
+      </c>
+      <c r="V6" s="26" t="s">
+        <v>30</v>
+      </c>
+      <c r="W6" s="26"/>
+    </row>
+    <row r="7" spans="1:23">
+      <c r="A7" s="52"/>
+      <c r="H7" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="I7" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="J7" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="K7" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="N7" s="49" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="8" spans="1:23">
+      <c r="A8" s="52"/>
+    </row>
+    <row r="9" spans="1:23">
+      <c r="A9" s="52"/>
+    </row>
+    <row r="10" spans="1:23">
+      <c r="A10" s="52"/>
+      <c r="B10" s="15" t="s">
+        <v>71</v>
+      </c>
+      <c r="C10" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="E10" s="15"/>
+      <c r="H10" s="21" t="s">
         <v>159</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="I10" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="J10" s="21" t="s">
         <v>29</v>
       </c>
-      <c r="E2" s="3"/>
-      <c r="H2" s="10" t="s">
+      <c r="K10" s="21"/>
+      <c r="N10" s="8" t="s">
         <v>165</v>
       </c>
-      <c r="I2" s="10" t="s">
+      <c r="O10" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="J2" s="10" t="s">
+      <c r="P10" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="K2" s="11"/>
-      <c r="N2" s="13" t="s">
-        <v>158</v>
-      </c>
-      <c r="O2" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="P2" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q2" s="14"/>
-      <c r="T2" s="25" t="s">
-        <v>100</v>
-      </c>
-      <c r="U2" s="25" t="s">
-        <v>26</v>
-      </c>
-      <c r="V2" s="25" t="s">
-        <v>29</v>
-      </c>
-      <c r="W2" s="26"/>
-    </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.75">
-      <c r="A3" s="43"/>
-      <c r="B3" s="3" t="s">
+      <c r="Q10" s="8"/>
+    </row>
+    <row r="11" spans="1:23">
+      <c r="A11" s="52"/>
+      <c r="B11" s="16" t="s">
         <v>55</v>
       </c>
-      <c r="C3" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="E3" s="3"/>
-      <c r="H3" s="12" t="s">
-        <v>55</v>
-      </c>
-      <c r="I3" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="J3" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="K3" s="11"/>
-      <c r="N3" s="14" t="s">
-        <v>55</v>
-      </c>
-      <c r="O3" s="14" t="s">
-        <v>28</v>
-      </c>
-      <c r="P3" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q3" s="14"/>
-      <c r="T3" s="26" t="s">
-        <v>55</v>
-      </c>
-      <c r="U3" s="26" t="s">
-        <v>28</v>
-      </c>
-      <c r="V3" s="26" t="s">
-        <v>30</v>
-      </c>
-      <c r="W3" s="26"/>
-    </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.75">
-      <c r="A4" s="43"/>
-      <c r="B4" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="E4" s="3"/>
-      <c r="H4" s="11" t="s">
-        <v>56</v>
-      </c>
-      <c r="I4" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="J4" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="K4" s="11"/>
-      <c r="N4" s="14" t="s">
-        <v>56</v>
-      </c>
-      <c r="O4" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="P4" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q4" s="14" t="s">
-        <v>81</v>
-      </c>
-      <c r="T4" s="26" t="s">
-        <v>56</v>
-      </c>
-      <c r="U4" s="26" t="s">
-        <v>27</v>
-      </c>
-      <c r="V4" s="26" t="s">
-        <v>30</v>
-      </c>
-      <c r="W4" s="26"/>
-    </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.75">
-      <c r="A5" s="43"/>
-      <c r="H5" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="I5" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="J5" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="K5" s="11" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.75">
-      <c r="A6" s="43"/>
-    </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.75">
-      <c r="A7" s="43"/>
-    </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.75">
-      <c r="A8" s="43"/>
-      <c r="B8" s="15" t="s">
-        <v>71</v>
-      </c>
-      <c r="C8" s="15" t="s">
-        <v>26</v>
-      </c>
-      <c r="D8" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="E8" s="15"/>
-      <c r="H8" s="21" t="s">
-        <v>160</v>
-      </c>
-      <c r="I8" s="21" t="s">
-        <v>26</v>
-      </c>
-      <c r="J8" s="21" t="s">
-        <v>29</v>
-      </c>
-      <c r="K8" s="21"/>
-      <c r="N8" s="8" t="s">
-        <v>166</v>
-      </c>
-      <c r="O8" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="P8" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q8" s="8"/>
-    </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.75">
-      <c r="A9" s="43"/>
-      <c r="B9" s="16" t="s">
-        <v>55</v>
-      </c>
-      <c r="C9" s="16" t="s">
-        <v>28</v>
-      </c>
-      <c r="D9" s="16" t="s">
-        <v>30</v>
-      </c>
-      <c r="E9" s="16"/>
-      <c r="H9" s="22" t="s">
-        <v>55</v>
-      </c>
-      <c r="I9" s="22" t="s">
-        <v>28</v>
-      </c>
-      <c r="J9" s="22" t="s">
-        <v>30</v>
-      </c>
-      <c r="K9" s="22"/>
-      <c r="N9" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="O9" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="P9" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q9" s="9"/>
-    </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.75">
-      <c r="A10" s="43"/>
-      <c r="B10" s="16" t="s">
-        <v>72</v>
-      </c>
-      <c r="C10" s="16" t="s">
-        <v>33</v>
-      </c>
-      <c r="D10" s="16" t="s">
-        <v>30</v>
-      </c>
-      <c r="E10" s="16"/>
-      <c r="H10" s="22" t="s">
-        <v>56</v>
-      </c>
-      <c r="I10" s="22" t="s">
-        <v>27</v>
-      </c>
-      <c r="J10" s="22" t="s">
-        <v>30</v>
-      </c>
-      <c r="K10" s="22"/>
-      <c r="N10" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="O10" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="P10" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q10" s="9"/>
-    </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.75">
-      <c r="A11" s="43"/>
-      <c r="B11" s="16" t="s">
-        <v>56</v>
-      </c>
       <c r="C11" s="16" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D11" s="16" t="s">
         <v>30</v>
       </c>
       <c r="E11" s="16"/>
       <c r="H11" s="22" t="s">
+        <v>55</v>
+      </c>
+      <c r="I11" s="22" t="s">
+        <v>28</v>
+      </c>
+      <c r="J11" s="22" t="s">
+        <v>30</v>
+      </c>
+      <c r="K11" s="22"/>
+      <c r="N11" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="O11" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="P11" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q11" s="9"/>
+    </row>
+    <row r="12" spans="1:23">
+      <c r="A12" s="52"/>
+      <c r="B12" s="16" t="s">
+        <v>72</v>
+      </c>
+      <c r="C12" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="D12" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="E12" s="16"/>
+      <c r="H12" s="22" t="s">
+        <v>56</v>
+      </c>
+      <c r="I12" s="22" t="s">
+        <v>27</v>
+      </c>
+      <c r="J12" s="22" t="s">
+        <v>30</v>
+      </c>
+      <c r="K12" s="22"/>
+      <c r="N12" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="O12" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="P12" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q12" s="9"/>
+    </row>
+    <row r="13" spans="1:23">
+      <c r="A13" s="52"/>
+      <c r="B13" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="C13" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="D13" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="E13" s="16"/>
+      <c r="H13" s="22" t="s">
         <v>39</v>
       </c>
-      <c r="I11" s="22" t="s">
-        <v>28</v>
-      </c>
-      <c r="J11" s="22" t="s">
-        <v>30</v>
-      </c>
-      <c r="K11" s="22"/>
-    </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.75">
-      <c r="A12" s="43"/>
-      <c r="B12" s="16" t="s">
+      <c r="I13" s="22" t="s">
+        <v>28</v>
+      </c>
+      <c r="J13" s="22" t="s">
+        <v>30</v>
+      </c>
+      <c r="K13" s="22"/>
+    </row>
+    <row r="14" spans="1:23">
+      <c r="A14" s="52"/>
+      <c r="B14" s="16" t="s">
         <v>77</v>
       </c>
-      <c r="C12" s="16" t="s">
+      <c r="C14" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="D12" s="16" t="s">
+      <c r="D14" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="E12" s="16" t="s">
+      <c r="E14" s="16" t="s">
         <v>78</v>
       </c>
-      <c r="H12" s="22" t="s">
+      <c r="H14" s="22" t="s">
         <v>109</v>
       </c>
-      <c r="I12" s="22" t="s">
-        <v>28</v>
-      </c>
-      <c r="J12" s="22" t="s">
+      <c r="I14" s="22" t="s">
+        <v>28</v>
+      </c>
+      <c r="J14" s="22" t="s">
+        <v>162</v>
+      </c>
+      <c r="K14" s="43" t="s">
         <v>163</v>
       </c>
-      <c r="K12" s="50" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.75">
-      <c r="A13" s="43"/>
-      <c r="B13" s="16" t="s">
+    </row>
+    <row r="15" spans="1:23">
+      <c r="A15" s="52"/>
+      <c r="B15" s="16" t="s">
         <v>79</v>
       </c>
-      <c r="C13" s="16" t="s">
-        <v>28</v>
-      </c>
-      <c r="D13" s="16" t="s">
+      <c r="C15" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="D15" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="E13" s="16" t="s">
+      <c r="E15" s="16" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.75">
-      <c r="A14" s="43"/>
-    </row>
-    <row r="15" spans="1:26" s="29" customFormat="1" x14ac:dyDescent="0.75">
-      <c r="A15" s="44"/>
-    </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.75">
-      <c r="A16" s="45" t="s">
+    <row r="16" spans="1:23">
+      <c r="A16" s="52"/>
+    </row>
+    <row r="17" spans="1:31" s="29" customFormat="1">
+      <c r="A17" s="53"/>
+      <c r="AE17" s="44"/>
+    </row>
+    <row r="18" spans="1:31">
+      <c r="A18" s="54" t="s">
         <v>97</v>
       </c>
-      <c r="B16" s="16" t="s">
+      <c r="B18" s="16" t="s">
         <v>119</v>
       </c>
-      <c r="H16" t="s">
+      <c r="H18" t="s">
         <v>120</v>
       </c>
-      <c r="N16" t="s">
+      <c r="N18" t="s">
         <v>121</v>
       </c>
-      <c r="T16" t="s">
+      <c r="T18" t="s">
         <v>122</v>
       </c>
-      <c r="Z16" t="s">
+      <c r="Z18" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="17" spans="1:29" x14ac:dyDescent="0.75">
-      <c r="A17" s="46"/>
-      <c r="B17" s="4" t="s">
+    <row r="19" spans="1:31">
+      <c r="A19" s="55"/>
+      <c r="B19" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="C17" s="4" t="s">
+      <c r="C19" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="D17" s="4" t="s">
+      <c r="D19" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="E17" s="4"/>
-      <c r="H17" s="23" t="s">
+      <c r="E19" s="4"/>
+      <c r="H19" s="23" t="s">
         <v>87</v>
       </c>
-      <c r="I17" s="23" t="s">
+      <c r="I19" s="23" t="s">
         <v>26</v>
       </c>
-      <c r="J17" s="23" t="s">
+      <c r="J19" s="23" t="s">
         <v>29</v>
       </c>
-      <c r="K17" s="23"/>
-      <c r="N17" s="37" t="s">
+      <c r="K19" s="23"/>
+      <c r="N19" s="37" t="s">
         <v>95</v>
       </c>
-      <c r="O17" s="37" t="s">
+      <c r="O19" s="37" t="s">
         <v>26</v>
       </c>
-      <c r="P17" s="37" t="s">
+      <c r="P19" s="37" t="s">
         <v>29</v>
       </c>
-      <c r="Q17" s="37"/>
-      <c r="T17" s="35" t="s">
+      <c r="Q19" s="37"/>
+      <c r="T19" s="35" t="s">
         <v>110</v>
       </c>
-      <c r="U17" s="35" t="s">
+      <c r="U19" s="35" t="s">
         <v>26</v>
       </c>
-      <c r="V17" s="35" t="s">
+      <c r="V19" s="35" t="s">
         <v>29</v>
       </c>
-      <c r="W17" s="35"/>
-      <c r="Z17" s="39" t="s">
+      <c r="W19" s="35"/>
+      <c r="Z19" s="39" t="s">
         <v>108</v>
       </c>
-      <c r="AA17" s="39" t="s">
+      <c r="AA19" s="39" t="s">
         <v>26</v>
       </c>
-      <c r="AB17" s="39" t="s">
+      <c r="AB19" s="39" t="s">
         <v>29</v>
       </c>
-      <c r="AC17" s="39"/>
-    </row>
-    <row r="18" spans="1:29" x14ac:dyDescent="0.75">
-      <c r="A18" s="46"/>
-      <c r="B18" s="5" t="s">
+      <c r="AC19" s="39"/>
+    </row>
+    <row r="20" spans="1:31">
+      <c r="A20" s="55"/>
+      <c r="B20" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C18" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="D18" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="E18" s="5"/>
-      <c r="H18" s="24" t="s">
+      <c r="C20" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="E20" s="5"/>
+      <c r="H20" s="24" t="s">
         <v>55</v>
       </c>
-      <c r="I18" s="24" t="s">
-        <v>28</v>
-      </c>
-      <c r="J18" s="24" t="s">
-        <v>30</v>
-      </c>
-      <c r="K18" s="24"/>
-      <c r="N18" s="30" t="s">
+      <c r="I20" s="24" t="s">
+        <v>28</v>
+      </c>
+      <c r="J20" s="24" t="s">
+        <v>30</v>
+      </c>
+      <c r="K20" s="24"/>
+      <c r="N20" s="30" t="s">
         <v>55</v>
       </c>
-      <c r="O18" s="30" t="s">
-        <v>28</v>
-      </c>
-      <c r="P18" s="30" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q18" s="30"/>
-      <c r="T18" s="36" t="s">
+      <c r="O20" s="30" t="s">
+        <v>28</v>
+      </c>
+      <c r="P20" s="30" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q20" s="30"/>
+      <c r="T20" s="36" t="s">
         <v>55</v>
       </c>
-      <c r="U18" s="36" t="s">
-        <v>28</v>
-      </c>
-      <c r="V18" s="36" t="s">
-        <v>30</v>
-      </c>
-      <c r="W18" s="36"/>
-      <c r="Z18" s="34" t="s">
+      <c r="U20" s="36" t="s">
+        <v>28</v>
+      </c>
+      <c r="V20" s="36" t="s">
+        <v>30</v>
+      </c>
+      <c r="W20" s="36"/>
+      <c r="Z20" s="34" t="s">
         <v>55</v>
       </c>
-      <c r="AA18" s="34" t="s">
-        <v>28</v>
-      </c>
-      <c r="AB18" s="34" t="s">
-        <v>30</v>
-      </c>
-      <c r="AC18" s="34"/>
-    </row>
-    <row r="19" spans="1:29" x14ac:dyDescent="0.75">
-      <c r="A19" s="46"/>
-      <c r="B19" s="5" t="s">
+      <c r="AA20" s="34" t="s">
+        <v>28</v>
+      </c>
+      <c r="AB20" s="34" t="s">
+        <v>30</v>
+      </c>
+      <c r="AC20" s="34"/>
+    </row>
+    <row r="21" spans="1:31">
+      <c r="A21" s="55"/>
+      <c r="B21" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="C19" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="D19" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="E19" s="32" t="s">
+      <c r="C21" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="D21" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="E21" s="32" t="s">
         <v>94</v>
       </c>
-      <c r="G19" s="48" t="s">
+      <c r="G21" s="57" t="s">
         <v>99</v>
       </c>
-      <c r="H19" s="24" t="s">
+      <c r="H21" s="24" t="s">
         <v>82</v>
       </c>
-      <c r="I19" s="24" t="s">
-        <v>28</v>
-      </c>
-      <c r="J19" s="24" t="s">
-        <v>30</v>
-      </c>
-      <c r="K19" s="24" t="s">
+      <c r="I21" s="24" t="s">
+        <v>28</v>
+      </c>
+      <c r="J21" s="24" t="s">
+        <v>30</v>
+      </c>
+      <c r="K21" s="24" t="s">
         <v>90</v>
       </c>
-      <c r="M19" s="49" t="s">
+      <c r="M21" s="50" t="s">
         <v>104</v>
       </c>
-      <c r="N19" s="30" t="s">
+      <c r="N21" s="30" t="s">
         <v>101</v>
       </c>
-      <c r="O19" s="30" t="s">
-        <v>28</v>
-      </c>
-      <c r="P19" s="30" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q19" s="38" t="s">
+      <c r="O21" s="30" t="s">
+        <v>28</v>
+      </c>
+      <c r="P21" s="30" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q21" s="38" t="s">
         <v>103</v>
       </c>
-      <c r="T19" s="36" t="s">
+      <c r="T21" s="36" t="s">
         <v>117</v>
       </c>
-      <c r="U19" s="36" t="s">
+      <c r="U21" s="36" t="s">
         <v>27</v>
       </c>
-      <c r="V19" s="36" t="s">
-        <v>30</v>
-      </c>
-      <c r="W19" s="36"/>
-      <c r="Z19" s="34" t="s">
-        <v>39</v>
-      </c>
-      <c r="AA19" s="34" t="s">
-        <v>28</v>
-      </c>
-      <c r="AB19" s="34" t="s">
-        <v>30</v>
-      </c>
-      <c r="AC19" s="40" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="20" spans="1:29" x14ac:dyDescent="0.75">
-      <c r="A20" s="46"/>
-      <c r="B20" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="C20" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="D20" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="E20" s="32" t="s">
-        <v>98</v>
-      </c>
-      <c r="G20" s="48"/>
-      <c r="H20" s="24" t="s">
-        <v>83</v>
-      </c>
-      <c r="I20" s="24" t="s">
-        <v>28</v>
-      </c>
-      <c r="J20" s="24" t="s">
-        <v>30</v>
-      </c>
-      <c r="K20" s="24" t="s">
-        <v>91</v>
-      </c>
-      <c r="M20" s="49"/>
-      <c r="N20" s="30" t="s">
-        <v>102</v>
-      </c>
-      <c r="O20" s="30" t="s">
-        <v>28</v>
-      </c>
-      <c r="P20" s="30" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q20" s="30"/>
-      <c r="S20" s="35" t="s">
-        <v>118</v>
-      </c>
-      <c r="T20" s="36" t="s">
-        <v>111</v>
-      </c>
-      <c r="U20" s="36" t="s">
-        <v>28</v>
-      </c>
-      <c r="V20" s="36" t="s">
-        <v>30</v>
-      </c>
-      <c r="W20" s="41" t="s">
-        <v>112</v>
-      </c>
-      <c r="Z20" s="34" t="s">
-        <v>109</v>
-      </c>
-      <c r="AA20" s="34" t="s">
-        <v>28</v>
-      </c>
-      <c r="AB20" s="34" t="s">
-        <v>30</v>
-      </c>
-      <c r="AC20" s="40" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="21" spans="1:29" x14ac:dyDescent="0.75">
-      <c r="A21" s="46"/>
-      <c r="B21" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="C21" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="D21" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="E21" s="6"/>
-      <c r="G21" s="48"/>
-      <c r="H21" s="24" t="s">
-        <v>84</v>
-      </c>
-      <c r="I21" s="24" t="s">
-        <v>28</v>
-      </c>
-      <c r="J21" s="24" t="s">
-        <v>30</v>
-      </c>
-      <c r="K21" s="24" t="s">
-        <v>92</v>
-      </c>
-      <c r="T21" s="36"/>
-      <c r="U21" s="36"/>
-      <c r="V21" s="36"/>
+      <c r="V21" s="36" t="s">
+        <v>30</v>
+      </c>
       <c r="W21" s="36"/>
       <c r="Z21" s="34" t="s">
+        <v>39</v>
+      </c>
+      <c r="AA21" s="34" t="s">
+        <v>28</v>
+      </c>
+      <c r="AB21" s="34" t="s">
+        <v>30</v>
+      </c>
+      <c r="AC21" s="40" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="22" spans="1:31">
+      <c r="A22" s="55"/>
+      <c r="B22" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="C22" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="D22" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="E22" s="32" t="s">
+        <v>98</v>
+      </c>
+      <c r="G22" s="57"/>
+      <c r="H22" s="24" t="s">
+        <v>83</v>
+      </c>
+      <c r="I22" s="24" t="s">
+        <v>28</v>
+      </c>
+      <c r="J22" s="24" t="s">
+        <v>30</v>
+      </c>
+      <c r="K22" s="24" t="s">
+        <v>91</v>
+      </c>
+      <c r="M22" s="50"/>
+      <c r="N22" s="30" t="s">
+        <v>102</v>
+      </c>
+      <c r="O22" s="30" t="s">
+        <v>28</v>
+      </c>
+      <c r="P22" s="30" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q22" s="30"/>
+      <c r="S22" s="35" t="s">
+        <v>118</v>
+      </c>
+      <c r="T22" s="36" t="s">
+        <v>111</v>
+      </c>
+      <c r="U22" s="36" t="s">
+        <v>28</v>
+      </c>
+      <c r="V22" s="36" t="s">
+        <v>30</v>
+      </c>
+      <c r="W22" s="41" t="s">
+        <v>112</v>
+      </c>
+      <c r="Z22" s="34" t="s">
+        <v>109</v>
+      </c>
+      <c r="AA22" s="34" t="s">
+        <v>28</v>
+      </c>
+      <c r="AB22" s="34" t="s">
+        <v>30</v>
+      </c>
+      <c r="AC22" s="40" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="23" spans="1:31">
+      <c r="A23" s="55"/>
+      <c r="B23" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="D23" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="E23" s="6"/>
+      <c r="G23" s="57"/>
+      <c r="H23" s="24" t="s">
+        <v>84</v>
+      </c>
+      <c r="I23" s="24" t="s">
+        <v>28</v>
+      </c>
+      <c r="J23" s="24" t="s">
+        <v>30</v>
+      </c>
+      <c r="K23" s="24" t="s">
+        <v>92</v>
+      </c>
+      <c r="T23" s="36"/>
+      <c r="U23" s="36"/>
+      <c r="V23" s="36"/>
+      <c r="W23" s="36"/>
+      <c r="Z23" s="34" t="s">
         <v>42</v>
       </c>
-      <c r="AA21" s="34" t="s">
-        <v>28</v>
-      </c>
-      <c r="AB21" s="34" t="s">
-        <v>30</v>
-      </c>
-      <c r="AC21" s="34"/>
-    </row>
-    <row r="22" spans="1:29" x14ac:dyDescent="0.75">
-      <c r="A22" s="46"/>
-      <c r="B22" s="5" t="s">
+      <c r="AA23" s="34" t="s">
+        <v>28</v>
+      </c>
+      <c r="AB23" s="34" t="s">
+        <v>30</v>
+      </c>
+      <c r="AC23" s="34"/>
+    </row>
+    <row r="24" spans="1:31">
+      <c r="A24" s="55"/>
+      <c r="B24" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="C22" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="D22" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="E22" s="5"/>
-      <c r="G22" s="48"/>
-      <c r="H22" s="24" t="s">
+      <c r="C24" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="D24" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="E24" s="5"/>
+      <c r="G24" s="57"/>
+      <c r="H24" s="24" t="s">
         <v>85</v>
       </c>
-      <c r="I22" s="24" t="s">
-        <v>28</v>
-      </c>
-      <c r="J22" s="24" t="s">
-        <v>30</v>
-      </c>
-      <c r="K22" s="28" t="s">
+      <c r="I24" s="24" t="s">
+        <v>28</v>
+      </c>
+      <c r="J24" s="24" t="s">
+        <v>30</v>
+      </c>
+      <c r="K24" s="28" t="s">
         <v>93</v>
       </c>
-      <c r="Z22" s="34" t="s">
+      <c r="Z24" s="34" t="s">
         <v>36</v>
       </c>
-      <c r="AA22" s="34" t="s">
+      <c r="AA24" s="34" t="s">
         <v>33</v>
       </c>
-      <c r="AB22" s="34" t="s">
-        <v>30</v>
-      </c>
-      <c r="AC22" s="34"/>
-    </row>
-    <row r="23" spans="1:29" x14ac:dyDescent="0.75">
-      <c r="A23" s="46"/>
-      <c r="B23" s="5" t="s">
+      <c r="AB24" s="34" t="s">
+        <v>30</v>
+      </c>
+      <c r="AC24" s="34"/>
+    </row>
+    <row r="25" spans="1:31">
+      <c r="A25" s="55"/>
+      <c r="B25" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="C23" s="5" t="s">
+      <c r="C25" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="D23" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="E23" s="5"/>
-      <c r="H23" s="24" t="s">
+      <c r="D25" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="E25" s="5"/>
+      <c r="H25" s="24" t="s">
         <v>88</v>
       </c>
-      <c r="I23" s="24" t="s">
-        <v>28</v>
-      </c>
-      <c r="J23" s="24" t="s">
-        <v>30</v>
-      </c>
-      <c r="K23" s="27" t="s">
+      <c r="I25" s="24" t="s">
+        <v>28</v>
+      </c>
+      <c r="J25" s="24" t="s">
+        <v>30</v>
+      </c>
+      <c r="K25" s="27" t="s">
         <v>86</v>
       </c>
-      <c r="Z23" s="34" t="s">
+      <c r="Z25" s="34" t="s">
         <v>73</v>
       </c>
-      <c r="AA23" s="34" t="s">
-        <v>28</v>
-      </c>
-      <c r="AB23" s="34" t="s">
+      <c r="AA25" s="34" t="s">
+        <v>28</v>
+      </c>
+      <c r="AB25" s="34" t="s">
         <v>31</v>
       </c>
-      <c r="AC23" s="40" t="s">
+      <c r="AC25" s="40" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="24" spans="1:29" x14ac:dyDescent="0.75">
-      <c r="A24" s="46"/>
-      <c r="B24" s="5" t="s">
+    <row r="26" spans="1:31">
+      <c r="A26" s="55"/>
+      <c r="B26" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="C24" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="D24" s="5" t="s">
+      <c r="C26" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="D26" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="E24" s="5" t="s">
+      <c r="E26" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="H24" s="24" t="s">
+      <c r="H26" s="24" t="s">
         <v>89</v>
       </c>
-      <c r="I24" s="24" t="s">
-        <v>28</v>
-      </c>
-      <c r="J24" s="24" t="s">
-        <v>30</v>
-      </c>
-      <c r="K24" s="24" t="s">
+      <c r="I26" s="24" t="s">
+        <v>28</v>
+      </c>
+      <c r="J26" s="24" t="s">
+        <v>30</v>
+      </c>
+      <c r="K26" s="24" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="25" spans="1:29" x14ac:dyDescent="0.75">
-      <c r="A25" s="46"/>
-      <c r="B25" s="5" t="s">
+    <row r="27" spans="1:31">
+      <c r="A27" s="55"/>
+      <c r="B27" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="C25" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="D25" s="5" t="s">
+      <c r="C27" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="D27" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="E25" s="32" t="s">
+      <c r="E27" s="32" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="26" spans="1:29" x14ac:dyDescent="0.75">
-      <c r="A26" s="46"/>
-      <c r="B26" s="5" t="s">
+    <row r="28" spans="1:31">
+      <c r="A28" s="55"/>
+      <c r="B28" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="C26" s="5" t="s">
+      <c r="C28" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="D26" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="E26" s="5"/>
-    </row>
-    <row r="27" spans="1:29" x14ac:dyDescent="0.75">
-      <c r="A27" s="46"/>
-      <c r="B27" s="7" t="s">
+      <c r="D28" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="E28" s="5"/>
+    </row>
+    <row r="29" spans="1:31">
+      <c r="A29" s="55"/>
+      <c r="B29" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="C27" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="D27" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="E27" s="32" t="s">
+      <c r="C29" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="D29" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="E29" s="32" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="28" spans="1:29" x14ac:dyDescent="0.75">
-      <c r="A28" s="46"/>
-      <c r="B28" s="7" t="s">
+    <row r="30" spans="1:31">
+      <c r="A30" s="55"/>
+      <c r="B30" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="C28" s="5"/>
-      <c r="D28" s="5"/>
-      <c r="E28" s="5"/>
-    </row>
-    <row r="29" spans="1:29" x14ac:dyDescent="0.75">
-      <c r="A29" s="46"/>
-    </row>
-    <row r="30" spans="1:29" s="30" customFormat="1" x14ac:dyDescent="0.75"/>
-    <row r="31" spans="1:29" x14ac:dyDescent="0.75">
-      <c r="A31" s="47" t="s">
+      <c r="C30" s="5"/>
+      <c r="D30" s="5"/>
+      <c r="E30" s="5"/>
+    </row>
+    <row r="31" spans="1:31">
+      <c r="A31" s="55"/>
+    </row>
+    <row r="32" spans="1:31" s="30" customFormat="1">
+      <c r="AE32" s="44"/>
+    </row>
+    <row r="33" spans="1:5">
+      <c r="A33" s="56" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="32" spans="1:29" x14ac:dyDescent="0.75">
-      <c r="A32" s="47"/>
-      <c r="B32" s="17" t="s">
+    <row r="34" spans="1:5">
+      <c r="A34" s="56"/>
+      <c r="B34" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="C32" s="17" t="s">
+      <c r="C34" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="D32" s="17" t="s">
+      <c r="D34" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="E32" s="17"/>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.75">
-      <c r="A33" s="47"/>
-      <c r="B33" s="18" t="s">
+      <c r="E34" s="17"/>
+    </row>
+    <row r="35" spans="1:5">
+      <c r="A35" s="56"/>
+      <c r="B35" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="C33" s="18" t="s">
+      <c r="C35" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="D33" s="19" t="s">
-        <v>30</v>
-      </c>
-      <c r="E33" s="18" t="s">
+      <c r="D35" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="E35" s="18" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.75">
-      <c r="A34" s="47"/>
-      <c r="B34" s="18" t="s">
+    <row r="36" spans="1:5">
+      <c r="A36" s="56"/>
+      <c r="B36" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="C34" s="18" t="s">
-        <v>28</v>
-      </c>
-      <c r="D34" s="18" t="s">
+      <c r="C36" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="D36" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="E34" s="18"/>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.75">
-      <c r="A35" s="47"/>
-      <c r="B35" s="18" t="s">
+      <c r="E36" s="18"/>
+    </row>
+    <row r="37" spans="1:5">
+      <c r="A37" s="56"/>
+      <c r="B37" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="C35" s="18" t="s">
-        <v>28</v>
-      </c>
-      <c r="D35" s="18" t="s">
-        <v>30</v>
-      </c>
-      <c r="E35" s="33" t="s">
+      <c r="C37" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="D37" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="E37" s="33" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.75">
-      <c r="A36" s="47"/>
-      <c r="B36" s="18" t="s">
+    <row r="38" spans="1:5">
+      <c r="A38" s="56"/>
+      <c r="B38" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="C36" s="18" t="s">
-        <v>28</v>
-      </c>
-      <c r="D36" s="18" t="s">
-        <v>30</v>
-      </c>
-      <c r="E36" s="33" t="s">
+      <c r="C38" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="D38" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="E38" s="33" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.75">
-      <c r="A37" s="47"/>
-      <c r="B37" s="18" t="s">
+    <row r="39" spans="1:5">
+      <c r="A39" s="56"/>
+      <c r="B39" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="C37" s="18" t="s">
-        <v>28</v>
-      </c>
-      <c r="D37" s="18" t="s">
-        <v>30</v>
-      </c>
-      <c r="E37" s="18"/>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.75">
-      <c r="A38" s="47"/>
-      <c r="B38" s="18" t="s">
+      <c r="C39" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="D39" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="E39" s="18"/>
+    </row>
+    <row r="40" spans="1:5">
+      <c r="A40" s="56"/>
+      <c r="B40" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="C38" s="18" t="s">
-        <v>28</v>
-      </c>
-      <c r="D38" s="18" t="s">
-        <v>31</v>
-      </c>
-      <c r="E38" s="18"/>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.75">
-      <c r="A39" s="47"/>
-      <c r="B39" s="18" t="s">
-        <v>11</v>
-      </c>
-      <c r="C39" s="18" t="s">
-        <v>27</v>
-      </c>
-      <c r="D39" s="18" t="s">
-        <v>30</v>
-      </c>
-      <c r="E39" s="33" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.75">
-      <c r="A40" s="47"/>
-      <c r="B40" s="18" t="s">
-        <v>44</v>
-      </c>
       <c r="C40" s="18" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D40" s="18" t="s">
         <v>31</v>
       </c>
       <c r="E40" s="18"/>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.75">
-      <c r="A41" s="47"/>
-      <c r="B41" s="19" t="s">
+    <row r="41" spans="1:5">
+      <c r="A41" s="56"/>
+      <c r="B41" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="C41" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="D41" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="E41" s="33" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5">
+      <c r="A42" s="56"/>
+      <c r="B42" s="18" t="s">
+        <v>44</v>
+      </c>
+      <c r="C42" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="D42" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="E42" s="18"/>
+    </row>
+    <row r="43" spans="1:5">
+      <c r="A43" s="56"/>
+      <c r="B43" s="19" t="s">
         <v>32</v>
       </c>
-      <c r="C41" s="18" t="s">
+      <c r="C43" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="D41" s="18" t="s">
-        <v>30</v>
-      </c>
-      <c r="E41" s="18"/>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.75">
-      <c r="A42" s="47"/>
-      <c r="B42" s="18" t="s">
+      <c r="D43" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="E43" s="18"/>
+    </row>
+    <row r="44" spans="1:5">
+      <c r="A44" s="56"/>
+      <c r="B44" s="18" t="s">
         <v>36</v>
       </c>
-      <c r="C42" s="18" t="s">
+      <c r="C44" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="D42" s="18" t="s">
-        <v>30</v>
-      </c>
-      <c r="E42" s="18"/>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.75">
-      <c r="A43" s="47"/>
-      <c r="B43" s="18" t="s">
+      <c r="D44" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="E44" s="18"/>
+    </row>
+    <row r="45" spans="1:5">
+      <c r="A45" s="56"/>
+      <c r="B45" s="18" t="s">
         <v>13</v>
-      </c>
-      <c r="C43" s="18" t="s">
-        <v>27</v>
-      </c>
-      <c r="D43" s="18" t="s">
-        <v>34</v>
-      </c>
-      <c r="E43" s="33" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.75">
-      <c r="A44" s="47"/>
-      <c r="B44" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="C44" s="18" t="s">
-        <v>28</v>
-      </c>
-      <c r="D44" s="18" t="s">
-        <v>34</v>
-      </c>
-      <c r="E44" s="18" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.75">
-      <c r="A45" s="47"/>
-      <c r="B45" s="18" t="s">
-        <v>15</v>
       </c>
       <c r="C45" s="18" t="s">
         <v>27</v>
       </c>
       <c r="D45" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="E45" s="33" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5">
+      <c r="A46" s="56"/>
+      <c r="B46" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="C46" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="D46" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="E46" s="18" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5">
+      <c r="A47" s="56"/>
+      <c r="B47" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="C47" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="D47" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="E45" s="18"/>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.75">
-      <c r="A46" s="47"/>
-      <c r="B46" s="18" t="s">
+      <c r="E47" s="18"/>
+    </row>
+    <row r="48" spans="1:5">
+      <c r="A48" s="56"/>
+      <c r="B48" s="18" t="s">
         <v>16</v>
-      </c>
-      <c r="C46" s="18" t="s">
-        <v>28</v>
-      </c>
-      <c r="D46" s="18" t="s">
-        <v>31</v>
-      </c>
-      <c r="E46" s="18"/>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.75">
-      <c r="A47" s="47"/>
-      <c r="B47" s="18" t="s">
-        <v>35</v>
-      </c>
-      <c r="C47" s="18" t="s">
-        <v>28</v>
-      </c>
-      <c r="D47" s="18" t="s">
-        <v>30</v>
-      </c>
-      <c r="E47" s="18"/>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.75">
-      <c r="A48" s="47"/>
-      <c r="B48" s="18" t="s">
-        <v>49</v>
       </c>
       <c r="C48" s="18" t="s">
         <v>28</v>
@@ -2164,44 +2272,40 @@
       <c r="D48" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="E48" s="18" t="s">
+      <c r="E48" s="18"/>
+    </row>
+    <row r="49" spans="1:31">
+      <c r="A49" s="56"/>
+      <c r="B49" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="C49" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="D49" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="E49" s="18"/>
+    </row>
+    <row r="50" spans="1:31">
+      <c r="A50" s="56"/>
+      <c r="B50" s="18" t="s">
+        <v>49</v>
+      </c>
+      <c r="C50" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="D50" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="E50" s="18" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.75">
-      <c r="A49" s="47"/>
-      <c r="B49" s="18" t="s">
+    <row r="51" spans="1:31">
+      <c r="A51" s="56"/>
+      <c r="B51" s="18" t="s">
         <v>17</v>
-      </c>
-      <c r="C49" s="18" t="s">
-        <v>28</v>
-      </c>
-      <c r="D49" s="18" t="s">
-        <v>34</v>
-      </c>
-      <c r="E49" s="18" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.75">
-      <c r="A50" s="47"/>
-      <c r="B50" s="18" t="s">
-        <v>23</v>
-      </c>
-      <c r="C50" s="18" t="s">
-        <v>28</v>
-      </c>
-      <c r="D50" s="18" t="s">
-        <v>34</v>
-      </c>
-      <c r="E50" s="18" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.75">
-      <c r="A51" s="47"/>
-      <c r="B51" s="18" t="s">
-        <v>24</v>
       </c>
       <c r="C51" s="18" t="s">
         <v>28</v>
@@ -2210,13 +2314,13 @@
         <v>34</v>
       </c>
       <c r="E51" s="18" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.75">
-      <c r="A52" s="47"/>
+        <v>52</v>
+      </c>
+    </row>
+    <row r="52" spans="1:31">
+      <c r="A52" s="56"/>
       <c r="B52" s="18" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C52" s="18" t="s">
         <v>28</v>
@@ -2224,87 +2328,89 @@
       <c r="D52" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="E52" s="19" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.75">
-      <c r="A53" s="47"/>
+      <c r="E52" s="18" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="53" spans="1:31">
+      <c r="A53" s="56"/>
       <c r="B53" s="18" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="C53" s="18" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="D53" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="E53" s="33" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.75">
-      <c r="A54" s="47"/>
+      <c r="E53" s="18" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="54" spans="1:31">
+      <c r="A54" s="56"/>
       <c r="B54" s="18" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="C54" s="18" t="s">
         <v>28</v>
       </c>
       <c r="D54" s="18" t="s">
-        <v>30</v>
-      </c>
-      <c r="E54" s="33" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.75">
-      <c r="A55" s="47"/>
+        <v>34</v>
+      </c>
+      <c r="E54" s="19" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="55" spans="1:31">
+      <c r="A55" s="56"/>
       <c r="B55" s="18" t="s">
-        <v>161</v>
+        <v>18</v>
       </c>
       <c r="C55" s="18" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="D55" s="18" t="s">
         <v>34</v>
       </c>
       <c r="E55" s="33" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.75">
-      <c r="A56" s="47"/>
-      <c r="B56" s="19" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="56" spans="1:31">
+      <c r="A56" s="56"/>
+      <c r="B56" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="C56" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="D56" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="E56" s="33" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="57" spans="1:31">
+      <c r="A57" s="56"/>
+      <c r="B57" s="18" t="s">
+        <v>160</v>
+      </c>
+      <c r="C57" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="D57" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="E57" s="33" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="58" spans="1:31">
+      <c r="A58" s="56"/>
+      <c r="B58" s="19" t="s">
         <v>21</v>
-      </c>
-      <c r="C56" s="18" t="s">
-        <v>28</v>
-      </c>
-      <c r="D56" s="18" t="s">
-        <v>31</v>
-      </c>
-      <c r="E56" s="33" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.75">
-      <c r="A57" s="47"/>
-      <c r="B57" s="19" t="s">
-        <v>46</v>
-      </c>
-      <c r="C57" s="18" t="s">
-        <v>28</v>
-      </c>
-      <c r="D57" s="18" t="s">
-        <v>31</v>
-      </c>
-      <c r="E57" s="20"/>
-    </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.75">
-      <c r="A58" s="47"/>
-      <c r="B58" s="19" t="s">
-        <v>22</v>
       </c>
       <c r="C58" s="18" t="s">
         <v>28</v>
@@ -2313,228 +2419,417 @@
         <v>31</v>
       </c>
       <c r="E58" s="33" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="59" spans="1:31">
+      <c r="A59" s="56"/>
+      <c r="B59" s="19" t="s">
+        <v>46</v>
+      </c>
+      <c r="C59" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="D59" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="E59" s="20"/>
+    </row>
+    <row r="60" spans="1:31">
+      <c r="A60" s="56"/>
+      <c r="B60" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="C60" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="D60" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="E60" s="33" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.75">
-      <c r="A59" s="47"/>
-    </row>
-    <row r="60" spans="1:11" s="31" customFormat="1" x14ac:dyDescent="0.75">
-      <c r="A60" s="47"/>
-    </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.75">
-      <c r="B62" t="s">
+    <row r="61" spans="1:31">
+      <c r="A61" s="56"/>
+      <c r="B61" s="19" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="62" spans="1:31" s="31" customFormat="1">
+      <c r="A62" s="56"/>
+      <c r="AE62" s="44"/>
+    </row>
+    <row r="64" spans="1:31">
+      <c r="B64" t="s">
         <v>128</v>
       </c>
-      <c r="E62" t="s">
+      <c r="E64" t="s">
         <v>133</v>
       </c>
-      <c r="H62" t="s">
+      <c r="H64" t="s">
         <v>136</v>
       </c>
-      <c r="K62" t="s">
+      <c r="K64" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.75">
-      <c r="B63" t="s">
+    <row r="65" spans="2:11">
+      <c r="B65" t="s">
         <v>129</v>
       </c>
-      <c r="E63" t="s">
+      <c r="E65" t="s">
         <v>129</v>
       </c>
-      <c r="H63" t="s">
+      <c r="H65" t="s">
         <v>137</v>
       </c>
-      <c r="K63" t="s">
+      <c r="K65" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.75">
-      <c r="B64" t="s">
+    <row r="66" spans="2:11">
+      <c r="B66" t="s">
         <v>130</v>
       </c>
-      <c r="E64" t="s">
+      <c r="E66" t="s">
         <v>83</v>
       </c>
-      <c r="K64" t="s">
+      <c r="K66" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="65" spans="2:11" x14ac:dyDescent="0.75">
-      <c r="B65" t="s">
+    <row r="67" spans="2:11">
+      <c r="B67" t="s">
         <v>131</v>
       </c>
-      <c r="E65" t="s">
+      <c r="E67" t="s">
         <v>134</v>
       </c>
-      <c r="K65" t="s">
+      <c r="K67" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="66" spans="2:11" x14ac:dyDescent="0.75">
-      <c r="B66" t="s">
+    <row r="68" spans="2:11">
+      <c r="B68" t="s">
         <v>102</v>
       </c>
-      <c r="E66" t="s">
+      <c r="E68" t="s">
         <v>135</v>
       </c>
-      <c r="K66" t="s">
+      <c r="K68" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="67" spans="2:11" x14ac:dyDescent="0.75">
-      <c r="B67" t="s">
+    <row r="69" spans="2:11">
+      <c r="B69" t="s">
         <v>132</v>
       </c>
-      <c r="E67" t="s">
+      <c r="E69" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="71" spans="2:11" x14ac:dyDescent="0.75">
-      <c r="B71" t="s">
+    <row r="73" spans="2:11">
+      <c r="B73" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="72" spans="2:11" x14ac:dyDescent="0.75">
-      <c r="B72" t="s">
+    <row r="74" spans="2:11">
+      <c r="B74" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="73" spans="2:11" x14ac:dyDescent="0.75">
-      <c r="B73" t="s">
+    <row r="75" spans="2:11">
+      <c r="B75" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="74" spans="2:11" x14ac:dyDescent="0.75">
-      <c r="B74" t="s">
+    <row r="76" spans="2:11">
+      <c r="B76" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="75" spans="2:11" x14ac:dyDescent="0.75">
-      <c r="B75" t="s">
+    <row r="77" spans="2:11">
+      <c r="B77" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="76" spans="2:11" x14ac:dyDescent="0.75">
-      <c r="B76" t="s">
+    <row r="78" spans="2:11">
+      <c r="B78" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="77" spans="2:11" x14ac:dyDescent="0.75">
-      <c r="B77" t="s">
+    <row r="79" spans="2:11">
+      <c r="B79" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="78" spans="2:11" x14ac:dyDescent="0.75">
-      <c r="B78" t="s">
+    <row r="80" spans="2:11">
+      <c r="B80" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="79" spans="2:11" x14ac:dyDescent="0.75">
-      <c r="B79" t="s">
+    <row r="81" spans="2:4">
+      <c r="B81" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="80" spans="2:11" x14ac:dyDescent="0.75">
-      <c r="B80" t="s">
+    <row r="82" spans="2:4">
+      <c r="B82" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="81" spans="2:4" x14ac:dyDescent="0.75">
-      <c r="B81" t="s">
+    <row r="83" spans="2:4">
+      <c r="B83" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="82" spans="2:4" x14ac:dyDescent="0.75">
-      <c r="B82" t="s">
+    <row r="84" spans="2:4">
+      <c r="B84" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="83" spans="2:4" x14ac:dyDescent="0.75">
-      <c r="B83" t="s">
+    <row r="85" spans="2:4">
+      <c r="B85" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="84" spans="2:4" x14ac:dyDescent="0.75">
-      <c r="B84" t="s">
+    <row r="86" spans="2:4">
+      <c r="B86" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="87" spans="2:4" x14ac:dyDescent="0.75">
-      <c r="B87" t="s">
+    <row r="89" spans="2:4">
+      <c r="B89" t="s">
         <v>105</v>
       </c>
-      <c r="C87" t="s">
+      <c r="C89" t="s">
         <v>26</v>
       </c>
-      <c r="D87" t="s">
+      <c r="D89" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="88" spans="2:4" x14ac:dyDescent="0.75">
-      <c r="B88" t="s">
+    <row r="90" spans="2:4">
+      <c r="B90" t="s">
         <v>55</v>
       </c>
-      <c r="C88" t="s">
-        <v>28</v>
-      </c>
-      <c r="D88" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="89" spans="2:4" x14ac:dyDescent="0.75">
-      <c r="B89" t="s">
+      <c r="C90" t="s">
+        <v>28</v>
+      </c>
+      <c r="D90" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="91" spans="2:4">
+      <c r="B91" t="s">
         <v>106</v>
       </c>
-      <c r="C89" t="s">
-        <v>28</v>
-      </c>
-      <c r="D89" t="s">
+      <c r="C91" t="s">
+        <v>28</v>
+      </c>
+      <c r="D91" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="90" spans="2:4" x14ac:dyDescent="0.75">
-      <c r="B90" t="s">
+    <row r="92" spans="2:4">
+      <c r="B92" t="s">
         <v>107</v>
       </c>
-      <c r="C90" t="s">
-        <v>28</v>
-      </c>
-      <c r="D90" t="s">
+      <c r="C92" t="s">
+        <v>28</v>
+      </c>
+      <c r="D92" t="s">
         <v>31</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="5">
-    <mergeCell ref="A1:A15"/>
-    <mergeCell ref="A16:A29"/>
-    <mergeCell ref="A31:A60"/>
-    <mergeCell ref="G19:G22"/>
-    <mergeCell ref="M19:M20"/>
+  <mergeCells count="6">
+    <mergeCell ref="M21:M22"/>
+    <mergeCell ref="D1:K2"/>
+    <mergeCell ref="A3:A17"/>
+    <mergeCell ref="A18:A31"/>
+    <mergeCell ref="A33:A62"/>
+    <mergeCell ref="G21:G24"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="E19" location="marcas" display="foreignkey do arquivo de marcas de veículos"/>
-    <hyperlink ref="E35" location="marcas" display="foreignkey da marca"/>
-    <hyperlink ref="E36" location="modelos" display="foreignkey do modelo"/>
-    <hyperlink ref="E39" location="cores" display="foreignkey de cores"/>
-    <hyperlink ref="E43" location="combuslubrif" display="foreignkey de combustiveis. Condicional a utilizar combustivel"/>
-    <hyperlink ref="E53" location="configcompon" display="foreignkey de configuração de componentes. Condicional a haver mais componentes sujeitos a controle. Pode haver um registro com nenhum componente"/>
-    <hyperlink ref="E54" location="configposition" display="foreignkey do arquivo de pdrão de pneus ou sem pneus. Condicional a ter pneus; alternativamente pode haver um registro com nenhum pneu"/>
-    <hyperlink ref="Q19" location="itensrelev" display="foreignkey do item relevante"/>
-    <hyperlink ref="E27" location="configitem" display="foreignkey de configuração de itens (ex. conjunto de filtros)"/>
-    <hyperlink ref="E55" location="implementos" display="foreignkey do arquivo de implementos (carroceria, bau, etc) ou sem implemento. Condicional ao equipamento utilizar algum implemento. Como nos anteriores pode haver um registro com nenhum implemento"/>
-    <hyperlink ref="E58" location="aplicacao" display="foreignkey do tipo de aplicação que esta sendo dada ao equipamento (leve, media, pesada ou mista)"/>
-    <hyperlink ref="E20" location="modelos" display="foreignkey do arquivo de modelos de veículos"/>
-    <hyperlink ref="E25" location="combuslubrif" display="foreignkey de lubrificantes. Condicional a usar lubrificantes"/>
-    <hyperlink ref="AC19" location="marcas" display="foreingkey de marca"/>
-    <hyperlink ref="AC20" location="modelos" display="foreingkey de modelo"/>
-    <hyperlink ref="AC23" location="configitem" display="foreingkey de configuração de itens"/>
-    <hyperlink ref="W20" location="componentes" display="foreignkey de componentes"/>
-    <hyperlink ref="E56" location="implementosX" display="foreignkey do arquivo de implementos especiais (betoneiras, bombas de concreto, munck etc.)"/>
-    <hyperlink ref="K12" location="modelos" display="foreignkey da tabela de modelos de veiculos e complementos"/>
+    <hyperlink ref="E21" location="marcas" display="foreignkey do arquivo de marcas de veículos"/>
+    <hyperlink ref="E37" location="marcas" display="foreignkey da marca"/>
+    <hyperlink ref="E38" location="modelos" display="foreignkey do modelo"/>
+    <hyperlink ref="E41" location="cores" display="foreignkey de cores"/>
+    <hyperlink ref="E45" location="combuslubrif" display="foreignkey de combustiveis. Condicional a utilizar combustivel"/>
+    <hyperlink ref="E55" location="configcompon" display="foreignkey de configuração de componentes. Condicional a haver mais componentes sujeitos a controle. Pode haver um registro com nenhum componente"/>
+    <hyperlink ref="E56" location="configposition" display="foreignkey do arquivo de pdrão de pneus ou sem pneus. Condicional a ter pneus; alternativamente pode haver um registro com nenhum pneu"/>
+    <hyperlink ref="Q21" location="itensrelev" display="foreignkey do item relevante"/>
+    <hyperlink ref="E29" location="configitem" display="foreignkey de configuração de itens (ex. conjunto de filtros)"/>
+    <hyperlink ref="E57" location="implementos" display="foreignkey do arquivo de implementos (carroceria, bau, etc) ou sem implemento. Condicional ao equipamento utilizar algum implemento. Como nos anteriores pode haver um registro com nenhum implemento"/>
+    <hyperlink ref="E60" location="aplicacao" display="foreignkey do tipo de aplicação que esta sendo dada ao equipamento (leve, media, pesada ou mista)"/>
+    <hyperlink ref="E22" location="modelos" display="foreignkey do arquivo de modelos de veículos"/>
+    <hyperlink ref="E27" location="combuslubrif" display="foreignkey de lubrificantes. Condicional a usar lubrificantes"/>
+    <hyperlink ref="AC21" location="marcas" display="foreingkey de marca"/>
+    <hyperlink ref="AC22" location="modelos" display="foreingkey de modelo"/>
+    <hyperlink ref="AC25" location="configitem" display="foreingkey de configuração de itens"/>
+    <hyperlink ref="W22" location="componentes" display="foreignkey de componentes"/>
+    <hyperlink ref="E58" location="implementosX" display="foreignkey do arquivo de implementos especiais (betoneiras, bombas de concreto, munck etc.)"/>
+    <hyperlink ref="K14" location="modelos" display="foreignkey da tabela de modelos de veiculos e complementos"/>
   </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B30"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A12" sqref="A12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="45" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="46" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="46"/>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="46"/>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="45" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="B8" s="42"/>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" s="46" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" s="47" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" s="45" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" s="45" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" t="s">
+        <v>179</v>
+      </c>
+      <c r="B18" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" s="46" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" t="s">
+        <v>179</v>
+      </c>
+      <c r="B21" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" s="46" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" s="45" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24" s="45" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25" s="45" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26" s="45" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2">
+      <c r="A29" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2">
+      <c r="A30" s="45" t="s">
+        <v>191</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A2" r:id="rId1"/>
+    <hyperlink ref="A7" r:id="rId2"/>
+    <hyperlink ref="A10" r:id="rId3"/>
+    <hyperlink ref="A3" r:id="rId4"/>
+    <hyperlink ref="A15" r:id="rId5"/>
+    <hyperlink ref="A16" r:id="rId6"/>
+    <hyperlink ref="A19" r:id="rId7"/>
+    <hyperlink ref="A26" r:id="rId8"/>
+    <hyperlink ref="A22" r:id="rId9"/>
+    <hyperlink ref="A23" r:id="rId10"/>
+    <hyperlink ref="A24" r:id="rId11"/>
+    <hyperlink ref="A25" r:id="rId12"/>
+    <hyperlink ref="A30" r:id="rId13"/>
+  </hyperlinks>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup orientation="portrait" r:id="rId14"/>
+</worksheet>
 </file>